--- a/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9728508292580105</v>
+        <v>0.9728508292580099</v>
       </c>
       <c r="D2">
-        <v>0.9942993311171726</v>
+        <v>0.9942993311171721</v>
       </c>
       <c r="E2">
-        <v>0.9822766195062188</v>
+        <v>0.9822766195062183</v>
       </c>
       <c r="F2">
-        <v>0.9499170423184123</v>
+        <v>0.9499170423184117</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.033625932782291</v>
       </c>
       <c r="J2">
-        <v>0.9958750404352186</v>
+        <v>0.9958750404352179</v>
       </c>
       <c r="K2">
         <v>1.005838660817875</v>
       </c>
       <c r="L2">
-        <v>0.9939885188857592</v>
+        <v>0.9939885188857586</v>
       </c>
       <c r="M2">
-        <v>0.9621212061639633</v>
+        <v>0.9621212061639628</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,22 +459,22 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9816819546254938</v>
+        <v>0.9816819546254935</v>
       </c>
       <c r="D3">
         <v>1.001185937311127</v>
       </c>
       <c r="E3">
-        <v>0.9896754431293733</v>
+        <v>0.9896754431293728</v>
       </c>
       <c r="F3">
-        <v>0.9622575936294583</v>
+        <v>0.9622575936294576</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036612288999355</v>
+        <v>1.036612288999356</v>
       </c>
       <c r="J3">
         <v>1.002684757650735</v>
@@ -486,7 +486,7 @@
         <v>1.000442155641015</v>
       </c>
       <c r="M3">
-        <v>0.9733973124475502</v>
+        <v>0.9733973124475496</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.005467780198894</v>
       </c>
       <c r="E4">
-        <v>0.9942841704831433</v>
+        <v>0.9942841704831434</v>
       </c>
       <c r="F4">
-        <v>0.9698983352434711</v>
+        <v>0.9698983352434708</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.004452073598159</v>
       </c>
       <c r="M4">
-        <v>0.9803741705650775</v>
+        <v>0.9803741705650774</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.98943577320094</v>
+        <v>0.9894357732009414</v>
       </c>
       <c r="D5">
-        <v>1.00722910628125</v>
+        <v>1.007229106281251</v>
       </c>
       <c r="E5">
-        <v>0.9961819353905909</v>
+        <v>0.9961819353905923</v>
       </c>
       <c r="F5">
-        <v>0.973035004530345</v>
+        <v>0.9730350045303457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039200897164194</v>
+        <v>1.039200897164195</v>
       </c>
       <c r="J5">
-        <v>1.008650787803146</v>
+        <v>1.008650787803147</v>
       </c>
       <c r="K5">
-        <v>1.017018626921459</v>
+        <v>1.01701862692146</v>
       </c>
       <c r="L5">
-        <v>1.006100897388924</v>
+        <v>1.006100897388925</v>
       </c>
       <c r="M5">
-        <v>0.983237063662442</v>
+        <v>0.9832370636624432</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9898125354383118</v>
+        <v>0.9898125354383122</v>
       </c>
       <c r="D6">
         <v>1.00752264711231</v>
       </c>
       <c r="E6">
-        <v>0.996498330208445</v>
+        <v>0.9964983302084456</v>
       </c>
       <c r="F6">
-        <v>0.9735574229915652</v>
+        <v>0.9735574229915662</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.039325812093287</v>
       </c>
       <c r="J6">
-        <v>1.008940341096646</v>
+        <v>1.008940341096647</v>
       </c>
       <c r="K6">
         <v>1.017271447825775</v>
       </c>
       <c r="L6">
-        <v>1.006375650861307</v>
+        <v>1.006375650861308</v>
       </c>
       <c r="M6">
-        <v>0.9837138090540878</v>
+        <v>0.9837138090540886</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9872057548813583</v>
+        <v>0.9872057548813601</v>
       </c>
       <c r="D7">
-        <v>1.005491463783527</v>
+        <v>1.005491463783528</v>
       </c>
       <c r="E7">
-        <v>0.9943096808982693</v>
+        <v>0.9943096808982707</v>
       </c>
       <c r="F7">
-        <v>0.9699405357235303</v>
+        <v>0.969940535723533</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038459846314787</v>
+        <v>1.038459846314788</v>
       </c>
       <c r="J7">
-        <v>1.006936286447176</v>
+        <v>1.006936286447178</v>
       </c>
       <c r="K7">
-        <v>1.015521081088388</v>
+        <v>1.015521081088389</v>
       </c>
       <c r="L7">
-        <v>1.004474246981339</v>
+        <v>1.004474246981341</v>
       </c>
       <c r="M7">
-        <v>0.9804126927024703</v>
+        <v>0.9804126927024728</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9758835761177838</v>
+        <v>0.9758835761177856</v>
       </c>
       <c r="D8">
-        <v>0.9966646699394723</v>
+        <v>0.9966646699394738</v>
       </c>
       <c r="E8">
-        <v>0.9848160743611749</v>
+        <v>0.9848160743611768</v>
       </c>
       <c r="F8">
-        <v>0.9541634032675134</v>
+        <v>0.9541634032675145</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034655766510642</v>
+        <v>1.034655766510643</v>
       </c>
       <c r="J8">
-        <v>0.9982152482864424</v>
+        <v>0.9982152482864444</v>
       </c>
       <c r="K8">
-        <v>1.007890010743242</v>
+        <v>1.007890010743244</v>
       </c>
       <c r="L8">
-        <v>0.9962057270319967</v>
+        <v>0.9962057270319985</v>
       </c>
       <c r="M8">
-        <v>0.9660022665816089</v>
+        <v>0.9660022665816103</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9540369024443228</v>
+        <v>0.9540369024443219</v>
       </c>
       <c r="D9">
-        <v>0.979620470528853</v>
+        <v>0.9796204705288521</v>
       </c>
       <c r="E9">
-        <v>0.9665567836447662</v>
+        <v>0.9665567836447655</v>
       </c>
       <c r="F9">
-        <v>0.9233505698239509</v>
+        <v>0.9233505698239506</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027149575825973</v>
+        <v>1.027149575825972</v>
       </c>
       <c r="J9">
-        <v>0.9813240903159919</v>
+        <v>0.9813240903159911</v>
       </c>
       <c r="K9">
-        <v>0.9930530779888013</v>
+        <v>0.9930530779888006</v>
       </c>
       <c r="L9">
-        <v>0.9802168051784952</v>
+        <v>0.9802168051784944</v>
       </c>
       <c r="M9">
-        <v>0.9378230255630463</v>
+        <v>0.9378230255630459</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9378524930972472</v>
+        <v>0.9378524930972457</v>
       </c>
       <c r="D10">
-        <v>0.9669908884420434</v>
+        <v>0.9669908884420421</v>
       </c>
       <c r="E10">
-        <v>0.9530823056005545</v>
+        <v>0.9530823056005534</v>
       </c>
       <c r="F10">
-        <v>0.9001321658629043</v>
+        <v>0.9001321658629037</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021476522956293</v>
+        <v>1.021476522956292</v>
       </c>
       <c r="J10">
-        <v>0.9687689136540919</v>
+        <v>0.9687689136540907</v>
       </c>
       <c r="K10">
-        <v>0.9819828544214629</v>
+        <v>0.9819828544214617</v>
       </c>
       <c r="L10">
-        <v>0.9683536953334965</v>
+        <v>0.9683536953334954</v>
       </c>
       <c r="M10">
-        <v>0.916573486812844</v>
+        <v>0.9165734868128431</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.930358869110319</v>
+        <v>0.9303588691103173</v>
       </c>
       <c r="D11">
-        <v>0.9611437226903569</v>
+        <v>0.9611437226903553</v>
       </c>
       <c r="E11">
-        <v>0.9468591039440064</v>
+        <v>0.9468591039440045</v>
       </c>
       <c r="F11">
-        <v>0.8892448886710639</v>
+        <v>0.8892448886710619</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018823335619299</v>
       </c>
       <c r="J11">
-        <v>0.9629459647986491</v>
+        <v>0.9629459647986474</v>
       </c>
       <c r="K11">
-        <v>0.9768375969521</v>
+        <v>0.9768375969520985</v>
       </c>
       <c r="L11">
-        <v>0.962857935642342</v>
+        <v>0.9628579356423402</v>
       </c>
       <c r="M11">
-        <v>0.9066085745384125</v>
+        <v>0.9066085745384105</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.927491300544829</v>
+        <v>0.9274913005448301</v>
       </c>
       <c r="D12">
-        <v>0.958906368798393</v>
+        <v>0.9589063687983943</v>
       </c>
       <c r="E12">
-        <v>0.9444803700976596</v>
+        <v>0.9444803700976607</v>
       </c>
       <c r="F12">
-        <v>0.8850530649948546</v>
+        <v>0.8850530649948566</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017804073269394</v>
+        <v>1.017804073269395</v>
       </c>
       <c r="J12">
-        <v>0.9607162547241173</v>
+        <v>0.9607162547241183</v>
       </c>
       <c r="K12">
-        <v>0.9748656036498847</v>
+        <v>0.9748656036498858</v>
       </c>
       <c r="L12">
-        <v>0.9607545690131907</v>
+        <v>0.9607545690131917</v>
       </c>
       <c r="M12">
-        <v>0.9027720871432702</v>
+        <v>0.902772087143272</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -845,10 +845,10 @@
         <v>0.9593894117241305</v>
       </c>
       <c r="E13">
-        <v>0.9449938193866987</v>
+        <v>0.9449938193866986</v>
       </c>
       <c r="F13">
-        <v>0.8859593436915574</v>
+        <v>0.8859593436915568</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -860,13 +860,13 @@
         <v>0.9611977218470827</v>
       </c>
       <c r="K13">
-        <v>0.9752915041993541</v>
+        <v>0.9752915041993542</v>
       </c>
       <c r="L13">
         <v>0.9612087045642503</v>
       </c>
       <c r="M13">
-        <v>0.903601525883122</v>
+        <v>0.9036015258831213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.930123624580213</v>
+        <v>0.9301236245802106</v>
       </c>
       <c r="D14">
-        <v>0.9609601747595113</v>
+        <v>0.9609601747595093</v>
       </c>
       <c r="E14">
-        <v>0.9466639052590605</v>
+        <v>0.9466639052590584</v>
       </c>
       <c r="F14">
-        <v>0.88890155885334</v>
+        <v>0.8889015588533375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018739799481547</v>
+        <v>1.018739799481545</v>
       </c>
       <c r="J14">
-        <v>0.9627630772282704</v>
+        <v>0.9627630772282679</v>
       </c>
       <c r="K14">
-        <v>0.9766758850068318</v>
+        <v>0.9766758850068299</v>
       </c>
       <c r="L14">
-        <v>0.962685388986786</v>
+        <v>0.9626853889867837</v>
       </c>
       <c r="M14">
-        <v>0.9062943419860593</v>
+        <v>0.9062943419860569</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,31 +918,31 @@
         <v>0.9313525053848953</v>
       </c>
       <c r="D15">
-        <v>0.9619190078610095</v>
+        <v>0.9619190078610093</v>
       </c>
       <c r="E15">
         <v>0.9476837035002441</v>
       </c>
       <c r="F15">
-        <v>0.8906939905909993</v>
+        <v>0.8906939905909995</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019176018520367</v>
+        <v>1.019176018520366</v>
       </c>
       <c r="J15">
-        <v>0.9637183945336585</v>
+        <v>0.9637183945336584</v>
       </c>
       <c r="K15">
-        <v>0.9775205179677015</v>
+        <v>0.9775205179677012</v>
       </c>
       <c r="L15">
-        <v>0.9635867338403076</v>
+        <v>0.9635867338403074</v>
       </c>
       <c r="M15">
-        <v>0.9079348753748347</v>
+        <v>0.9079348753748351</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9383386946857275</v>
+        <v>0.9383386946857269</v>
       </c>
       <c r="D16">
-        <v>0.9673702829916467</v>
+        <v>0.9673702829916468</v>
       </c>
       <c r="E16">
-        <v>0.9534864270877601</v>
+        <v>0.9534864270877594</v>
       </c>
       <c r="F16">
-        <v>0.9008353618831368</v>
+        <v>0.9008353618831373</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021648125527687</v>
       </c>
       <c r="J16">
-        <v>0.9691465202352144</v>
+        <v>0.969146520235214</v>
       </c>
       <c r="K16">
-        <v>0.9823162788422259</v>
+        <v>0.9823162788422258</v>
       </c>
       <c r="L16">
-        <v>0.9687102212208828</v>
+        <v>0.9687102212208824</v>
       </c>
       <c r="M16">
-        <v>0.9172171167503719</v>
+        <v>0.9172171167503723</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9425838245258076</v>
+        <v>0.9425838245258111</v>
       </c>
       <c r="D17">
-        <v>0.9706829286231348</v>
+        <v>0.9706829286231378</v>
       </c>
       <c r="E17">
-        <v>0.9570166785979149</v>
+        <v>0.9570166785979179</v>
       </c>
       <c r="F17">
-        <v>0.9069594297835388</v>
+        <v>0.9069594297835423</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023143477511381</v>
+        <v>1.023143477511382</v>
       </c>
       <c r="J17">
-        <v>0.9724424047224965</v>
+        <v>0.9724424047224997</v>
       </c>
       <c r="K17">
-        <v>0.985225289492681</v>
+        <v>0.985225289492684</v>
       </c>
       <c r="L17">
-        <v>0.9718228092960642</v>
+        <v>0.9718228092960672</v>
       </c>
       <c r="M17">
-        <v>0.9228223647062895</v>
+        <v>0.9228223647062929</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9450139472490006</v>
+        <v>0.9450139472490012</v>
       </c>
       <c r="D18">
-        <v>0.9725792942339919</v>
+        <v>0.9725792942339926</v>
       </c>
       <c r="E18">
-        <v>0.9590389989038178</v>
+        <v>0.9590389989038187</v>
       </c>
       <c r="F18">
-        <v>0.9104528595659475</v>
+        <v>0.910452859565948</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023997039034785</v>
       </c>
       <c r="J18">
-        <v>0.9743282331628021</v>
+        <v>0.9743282331628028</v>
       </c>
       <c r="K18">
-        <v>0.986888748653197</v>
+        <v>0.9868887486531974</v>
       </c>
       <c r="L18">
-        <v>0.9736043259630149</v>
+        <v>0.9736043259630156</v>
       </c>
       <c r="M18">
-        <v>0.9260197343875641</v>
+        <v>0.9260197343875648</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458350536872377</v>
+        <v>0.9458350536872374</v>
       </c>
       <c r="D19">
-        <v>0.9732200556139645</v>
+        <v>0.9732200556139639</v>
       </c>
       <c r="E19">
-        <v>0.9597225480158715</v>
+        <v>0.9597225480158709</v>
       </c>
       <c r="F19">
-        <v>0.9116312844796097</v>
+        <v>0.9116312844796084</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024285029798649</v>
+        <v>1.024285029798648</v>
       </c>
       <c r="J19">
-        <v>0.9749652767616898</v>
+        <v>0.974965276761689</v>
       </c>
       <c r="K19">
-        <v>0.9874505065468325</v>
+        <v>0.9874505065468318</v>
       </c>
       <c r="L19">
-        <v>0.9742062253584158</v>
+        <v>0.9742062253584152</v>
       </c>
       <c r="M19">
-        <v>0.9270982647543453</v>
+        <v>0.927098264754344</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,10 +1105,10 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.942133191588125</v>
+        <v>0.9421331915881249</v>
       </c>
       <c r="D20">
-        <v>0.9703312764411866</v>
+        <v>0.9703312764411862</v>
       </c>
       <c r="E20">
         <v>0.9566417810458728</v>
@@ -1123,16 +1123,16 @@
         <v>1.022984996880818</v>
       </c>
       <c r="J20">
-        <v>0.9720926305349694</v>
+        <v>0.9720926305349692</v>
       </c>
       <c r="K20">
-        <v>0.9849166780146396</v>
+        <v>0.9849166780146392</v>
       </c>
       <c r="L20">
         <v>0.9714924275914922</v>
       </c>
       <c r="M20">
-        <v>0.922228560230124</v>
+        <v>0.9222285602301237</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.929533209716307</v>
+        <v>0.9295332097163062</v>
       </c>
       <c r="D21">
-        <v>0.9604995105770006</v>
+        <v>0.9604995105769999</v>
       </c>
       <c r="E21">
-        <v>0.9461740414001839</v>
+        <v>0.9461740414001831</v>
       </c>
       <c r="F21">
-        <v>0.8880394419570196</v>
+        <v>0.8880394419570192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018530077423329</v>
+        <v>1.018530077423328</v>
       </c>
       <c r="J21">
-        <v>0.9623040440939401</v>
+        <v>0.9623040440939393</v>
       </c>
       <c r="K21">
-        <v>0.9762699718898783</v>
+        <v>0.9762699718898776</v>
       </c>
       <c r="L21">
-        <v>0.962252328132345</v>
+        <v>0.9622523281323442</v>
       </c>
       <c r="M21">
-        <v>0.9055052942735753</v>
+        <v>0.905505294273575</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9211168531569243</v>
+        <v>0.9211168531569249</v>
       </c>
       <c r="D22">
-        <v>0.9539332440997041</v>
+        <v>0.9539332440997043</v>
       </c>
       <c r="E22">
-        <v>0.9391979719862135</v>
+        <v>0.9391979719862139</v>
       </c>
       <c r="F22">
-        <v>0.8756802952740226</v>
+        <v>0.8756802952740228</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.015530923903879</v>
       </c>
       <c r="J22">
-        <v>0.9557570145374865</v>
+        <v>0.955757014537487</v>
       </c>
       <c r="K22">
-        <v>0.9704760712722363</v>
+        <v>0.9704760712722367</v>
       </c>
       <c r="L22">
-        <v>0.9560784639401684</v>
+        <v>0.9560784639401688</v>
       </c>
       <c r="M22">
-        <v>0.8941946894991362</v>
+        <v>0.8941946894991364</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9256298376574836</v>
+        <v>0.9256298376574839</v>
       </c>
       <c r="D23">
-        <v>0.9574540622272522</v>
+        <v>0.9574540622272524</v>
       </c>
       <c r="E23">
-        <v>0.9429370344533553</v>
+        <v>0.9429370344533556</v>
       </c>
       <c r="F23">
-        <v>0.8823239755225352</v>
+        <v>0.8823239755225354</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017141303763681</v>
+        <v>1.01714130376368</v>
       </c>
       <c r="J23">
-        <v>0.9592684412986325</v>
+        <v>0.9592684412986326</v>
       </c>
       <c r="K23">
         <v>0.9735846095449724</v>
       </c>
       <c r="L23">
-        <v>0.9593891102493787</v>
+        <v>0.959389110249379</v>
       </c>
       <c r="M23">
-        <v>0.9002744488190637</v>
+        <v>0.9002744488190639</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.942336954522576</v>
+        <v>0.9423369545225773</v>
       </c>
       <c r="D24">
-        <v>0.9704902830677189</v>
+        <v>0.9704902830677201</v>
       </c>
       <c r="E24">
-        <v>0.9568112942425985</v>
+        <v>0.9568112942425995</v>
       </c>
       <c r="F24">
-        <v>0.9066040489080646</v>
+        <v>0.9066040489080659</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023056664789456</v>
       </c>
       <c r="J24">
-        <v>0.9722507909161572</v>
+        <v>0.9722507909161584</v>
       </c>
       <c r="K24">
-        <v>0.9850562286365783</v>
+        <v>0.9850562286365793</v>
       </c>
       <c r="L24">
-        <v>0.9716418173530152</v>
+        <v>0.9716418173530161</v>
       </c>
       <c r="M24">
-        <v>0.9224970961714163</v>
+        <v>0.9224970961714176</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9599412045353247</v>
+        <v>0.9599412045353266</v>
       </c>
       <c r="D25">
-        <v>0.984227737352375</v>
+        <v>0.9842277373523768</v>
       </c>
       <c r="E25">
-        <v>0.971483704802752</v>
+        <v>0.9714837048027538</v>
       </c>
       <c r="F25">
-        <v>0.9317323365470781</v>
+        <v>0.9317323365470804</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029197110821793</v>
+        <v>1.029197110821794</v>
       </c>
       <c r="J25">
-        <v>0.9858962297460564</v>
+        <v>0.9858962297460584</v>
       </c>
       <c r="K25">
-        <v>0.9970759334532743</v>
+        <v>0.9970759334532762</v>
       </c>
       <c r="L25">
-        <v>0.9845414409838914</v>
+        <v>0.9845414409838932</v>
       </c>
       <c r="M25">
-        <v>0.9454917215323032</v>
+        <v>0.9454917215323054</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9728508292580099</v>
+        <v>0.9728508292580105</v>
       </c>
       <c r="D2">
-        <v>0.9942993311171721</v>
+        <v>0.9942993311171726</v>
       </c>
       <c r="E2">
-        <v>0.9822766195062183</v>
+        <v>0.9822766195062188</v>
       </c>
       <c r="F2">
-        <v>0.9499170423184117</v>
+        <v>0.9499170423184123</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.033625932782291</v>
       </c>
       <c r="J2">
-        <v>0.9958750404352179</v>
+        <v>0.9958750404352186</v>
       </c>
       <c r="K2">
         <v>1.005838660817875</v>
       </c>
       <c r="L2">
-        <v>0.9939885188857586</v>
+        <v>0.9939885188857592</v>
       </c>
       <c r="M2">
-        <v>0.9621212061639628</v>
+        <v>0.9621212061639633</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,22 +459,22 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9816819546254935</v>
+        <v>0.9816819546254938</v>
       </c>
       <c r="D3">
         <v>1.001185937311127</v>
       </c>
       <c r="E3">
-        <v>0.9896754431293728</v>
+        <v>0.9896754431293733</v>
       </c>
       <c r="F3">
-        <v>0.9622575936294576</v>
+        <v>0.9622575936294583</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036612288999356</v>
+        <v>1.036612288999355</v>
       </c>
       <c r="J3">
         <v>1.002684757650735</v>
@@ -486,7 +486,7 @@
         <v>1.000442155641015</v>
       </c>
       <c r="M3">
-        <v>0.9733973124475496</v>
+        <v>0.9733973124475502</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.005467780198894</v>
       </c>
       <c r="E4">
-        <v>0.9942841704831434</v>
+        <v>0.9942841704831433</v>
       </c>
       <c r="F4">
-        <v>0.9698983352434708</v>
+        <v>0.9698983352434711</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.004452073598159</v>
       </c>
       <c r="M4">
-        <v>0.9803741705650774</v>
+        <v>0.9803741705650775</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9894357732009414</v>
+        <v>0.98943577320094</v>
       </c>
       <c r="D5">
-        <v>1.007229106281251</v>
+        <v>1.00722910628125</v>
       </c>
       <c r="E5">
-        <v>0.9961819353905923</v>
+        <v>0.9961819353905909</v>
       </c>
       <c r="F5">
-        <v>0.9730350045303457</v>
+        <v>0.973035004530345</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039200897164195</v>
+        <v>1.039200897164194</v>
       </c>
       <c r="J5">
-        <v>1.008650787803147</v>
+        <v>1.008650787803146</v>
       </c>
       <c r="K5">
-        <v>1.01701862692146</v>
+        <v>1.017018626921459</v>
       </c>
       <c r="L5">
-        <v>1.006100897388925</v>
+        <v>1.006100897388924</v>
       </c>
       <c r="M5">
-        <v>0.9832370636624432</v>
+        <v>0.983237063662442</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9898125354383122</v>
+        <v>0.9898125354383118</v>
       </c>
       <c r="D6">
         <v>1.00752264711231</v>
       </c>
       <c r="E6">
-        <v>0.9964983302084456</v>
+        <v>0.996498330208445</v>
       </c>
       <c r="F6">
-        <v>0.9735574229915662</v>
+        <v>0.9735574229915652</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.039325812093287</v>
       </c>
       <c r="J6">
-        <v>1.008940341096647</v>
+        <v>1.008940341096646</v>
       </c>
       <c r="K6">
         <v>1.017271447825775</v>
       </c>
       <c r="L6">
-        <v>1.006375650861308</v>
+        <v>1.006375650861307</v>
       </c>
       <c r="M6">
-        <v>0.9837138090540886</v>
+        <v>0.9837138090540878</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9872057548813601</v>
+        <v>0.9872057548813583</v>
       </c>
       <c r="D7">
-        <v>1.005491463783528</v>
+        <v>1.005491463783527</v>
       </c>
       <c r="E7">
-        <v>0.9943096808982707</v>
+        <v>0.9943096808982693</v>
       </c>
       <c r="F7">
-        <v>0.969940535723533</v>
+        <v>0.9699405357235303</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038459846314788</v>
+        <v>1.038459846314787</v>
       </c>
       <c r="J7">
-        <v>1.006936286447178</v>
+        <v>1.006936286447176</v>
       </c>
       <c r="K7">
-        <v>1.015521081088389</v>
+        <v>1.015521081088388</v>
       </c>
       <c r="L7">
-        <v>1.004474246981341</v>
+        <v>1.004474246981339</v>
       </c>
       <c r="M7">
-        <v>0.9804126927024728</v>
+        <v>0.9804126927024703</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9758835761177856</v>
+        <v>0.9758835761177838</v>
       </c>
       <c r="D8">
-        <v>0.9966646699394738</v>
+        <v>0.9966646699394723</v>
       </c>
       <c r="E8">
-        <v>0.9848160743611768</v>
+        <v>0.9848160743611749</v>
       </c>
       <c r="F8">
-        <v>0.9541634032675145</v>
+        <v>0.9541634032675134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034655766510643</v>
+        <v>1.034655766510642</v>
       </c>
       <c r="J8">
-        <v>0.9982152482864444</v>
+        <v>0.9982152482864424</v>
       </c>
       <c r="K8">
-        <v>1.007890010743244</v>
+        <v>1.007890010743242</v>
       </c>
       <c r="L8">
-        <v>0.9962057270319985</v>
+        <v>0.9962057270319967</v>
       </c>
       <c r="M8">
-        <v>0.9660022665816103</v>
+        <v>0.9660022665816089</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9540369024443219</v>
+        <v>0.9540369024443228</v>
       </c>
       <c r="D9">
-        <v>0.9796204705288521</v>
+        <v>0.979620470528853</v>
       </c>
       <c r="E9">
-        <v>0.9665567836447655</v>
+        <v>0.9665567836447662</v>
       </c>
       <c r="F9">
-        <v>0.9233505698239506</v>
+        <v>0.9233505698239509</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027149575825972</v>
+        <v>1.027149575825973</v>
       </c>
       <c r="J9">
-        <v>0.9813240903159911</v>
+        <v>0.9813240903159919</v>
       </c>
       <c r="K9">
-        <v>0.9930530779888006</v>
+        <v>0.9930530779888013</v>
       </c>
       <c r="L9">
-        <v>0.9802168051784944</v>
+        <v>0.9802168051784952</v>
       </c>
       <c r="M9">
-        <v>0.9378230255630459</v>
+        <v>0.9378230255630463</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9378524930972457</v>
+        <v>0.9378524930972472</v>
       </c>
       <c r="D10">
-        <v>0.9669908884420421</v>
+        <v>0.9669908884420434</v>
       </c>
       <c r="E10">
-        <v>0.9530823056005534</v>
+        <v>0.9530823056005545</v>
       </c>
       <c r="F10">
-        <v>0.9001321658629037</v>
+        <v>0.9001321658629043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021476522956292</v>
+        <v>1.021476522956293</v>
       </c>
       <c r="J10">
-        <v>0.9687689136540907</v>
+        <v>0.9687689136540919</v>
       </c>
       <c r="K10">
-        <v>0.9819828544214617</v>
+        <v>0.9819828544214629</v>
       </c>
       <c r="L10">
-        <v>0.9683536953334954</v>
+        <v>0.9683536953334965</v>
       </c>
       <c r="M10">
-        <v>0.9165734868128431</v>
+        <v>0.916573486812844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9303588691103173</v>
+        <v>0.930358869110319</v>
       </c>
       <c r="D11">
-        <v>0.9611437226903553</v>
+        <v>0.9611437226903569</v>
       </c>
       <c r="E11">
-        <v>0.9468591039440045</v>
+        <v>0.9468591039440064</v>
       </c>
       <c r="F11">
-        <v>0.8892448886710619</v>
+        <v>0.8892448886710639</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018823335619299</v>
       </c>
       <c r="J11">
-        <v>0.9629459647986474</v>
+        <v>0.9629459647986491</v>
       </c>
       <c r="K11">
-        <v>0.9768375969520985</v>
+        <v>0.9768375969521</v>
       </c>
       <c r="L11">
-        <v>0.9628579356423402</v>
+        <v>0.962857935642342</v>
       </c>
       <c r="M11">
-        <v>0.9066085745384105</v>
+        <v>0.9066085745384125</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9274913005448301</v>
+        <v>0.927491300544829</v>
       </c>
       <c r="D12">
-        <v>0.9589063687983943</v>
+        <v>0.958906368798393</v>
       </c>
       <c r="E12">
-        <v>0.9444803700976607</v>
+        <v>0.9444803700976596</v>
       </c>
       <c r="F12">
-        <v>0.8850530649948566</v>
+        <v>0.8850530649948546</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017804073269395</v>
+        <v>1.017804073269394</v>
       </c>
       <c r="J12">
-        <v>0.9607162547241183</v>
+        <v>0.9607162547241173</v>
       </c>
       <c r="K12">
-        <v>0.9748656036498858</v>
+        <v>0.9748656036498847</v>
       </c>
       <c r="L12">
-        <v>0.9607545690131917</v>
+        <v>0.9607545690131907</v>
       </c>
       <c r="M12">
-        <v>0.902772087143272</v>
+        <v>0.9027720871432702</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -845,10 +845,10 @@
         <v>0.9593894117241305</v>
       </c>
       <c r="E13">
-        <v>0.9449938193866986</v>
+        <v>0.9449938193866987</v>
       </c>
       <c r="F13">
-        <v>0.8859593436915568</v>
+        <v>0.8859593436915574</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -860,13 +860,13 @@
         <v>0.9611977218470827</v>
       </c>
       <c r="K13">
-        <v>0.9752915041993542</v>
+        <v>0.9752915041993541</v>
       </c>
       <c r="L13">
         <v>0.9612087045642503</v>
       </c>
       <c r="M13">
-        <v>0.9036015258831213</v>
+        <v>0.903601525883122</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9301236245802106</v>
+        <v>0.930123624580213</v>
       </c>
       <c r="D14">
-        <v>0.9609601747595093</v>
+        <v>0.9609601747595113</v>
       </c>
       <c r="E14">
-        <v>0.9466639052590584</v>
+        <v>0.9466639052590605</v>
       </c>
       <c r="F14">
-        <v>0.8889015588533375</v>
+        <v>0.88890155885334</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018739799481545</v>
+        <v>1.018739799481547</v>
       </c>
       <c r="J14">
-        <v>0.9627630772282679</v>
+        <v>0.9627630772282704</v>
       </c>
       <c r="K14">
-        <v>0.9766758850068299</v>
+        <v>0.9766758850068318</v>
       </c>
       <c r="L14">
-        <v>0.9626853889867837</v>
+        <v>0.962685388986786</v>
       </c>
       <c r="M14">
-        <v>0.9062943419860569</v>
+        <v>0.9062943419860593</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,31 +918,31 @@
         <v>0.9313525053848953</v>
       </c>
       <c r="D15">
-        <v>0.9619190078610093</v>
+        <v>0.9619190078610095</v>
       </c>
       <c r="E15">
         <v>0.9476837035002441</v>
       </c>
       <c r="F15">
-        <v>0.8906939905909995</v>
+        <v>0.8906939905909993</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019176018520366</v>
+        <v>1.019176018520367</v>
       </c>
       <c r="J15">
-        <v>0.9637183945336584</v>
+        <v>0.9637183945336585</v>
       </c>
       <c r="K15">
-        <v>0.9775205179677012</v>
+        <v>0.9775205179677015</v>
       </c>
       <c r="L15">
-        <v>0.9635867338403074</v>
+        <v>0.9635867338403076</v>
       </c>
       <c r="M15">
-        <v>0.9079348753748351</v>
+        <v>0.9079348753748347</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9383386946857269</v>
+        <v>0.9383386946857275</v>
       </c>
       <c r="D16">
-        <v>0.9673702829916468</v>
+        <v>0.9673702829916467</v>
       </c>
       <c r="E16">
-        <v>0.9534864270877594</v>
+        <v>0.9534864270877601</v>
       </c>
       <c r="F16">
-        <v>0.9008353618831373</v>
+        <v>0.9008353618831368</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021648125527687</v>
       </c>
       <c r="J16">
-        <v>0.969146520235214</v>
+        <v>0.9691465202352144</v>
       </c>
       <c r="K16">
-        <v>0.9823162788422258</v>
+        <v>0.9823162788422259</v>
       </c>
       <c r="L16">
-        <v>0.9687102212208824</v>
+        <v>0.9687102212208828</v>
       </c>
       <c r="M16">
-        <v>0.9172171167503723</v>
+        <v>0.9172171167503719</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9425838245258111</v>
+        <v>0.9425838245258076</v>
       </c>
       <c r="D17">
-        <v>0.9706829286231378</v>
+        <v>0.9706829286231348</v>
       </c>
       <c r="E17">
-        <v>0.9570166785979179</v>
+        <v>0.9570166785979149</v>
       </c>
       <c r="F17">
-        <v>0.9069594297835423</v>
+        <v>0.9069594297835388</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023143477511382</v>
+        <v>1.023143477511381</v>
       </c>
       <c r="J17">
-        <v>0.9724424047224997</v>
+        <v>0.9724424047224965</v>
       </c>
       <c r="K17">
-        <v>0.985225289492684</v>
+        <v>0.985225289492681</v>
       </c>
       <c r="L17">
-        <v>0.9718228092960672</v>
+        <v>0.9718228092960642</v>
       </c>
       <c r="M17">
-        <v>0.9228223647062929</v>
+        <v>0.9228223647062895</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9450139472490012</v>
+        <v>0.9450139472490006</v>
       </c>
       <c r="D18">
-        <v>0.9725792942339926</v>
+        <v>0.9725792942339919</v>
       </c>
       <c r="E18">
-        <v>0.9590389989038187</v>
+        <v>0.9590389989038178</v>
       </c>
       <c r="F18">
-        <v>0.910452859565948</v>
+        <v>0.9104528595659475</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023997039034785</v>
       </c>
       <c r="J18">
-        <v>0.9743282331628028</v>
+        <v>0.9743282331628021</v>
       </c>
       <c r="K18">
-        <v>0.9868887486531974</v>
+        <v>0.986888748653197</v>
       </c>
       <c r="L18">
-        <v>0.9736043259630156</v>
+        <v>0.9736043259630149</v>
       </c>
       <c r="M18">
-        <v>0.9260197343875648</v>
+        <v>0.9260197343875641</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458350536872374</v>
+        <v>0.9458350536872377</v>
       </c>
       <c r="D19">
-        <v>0.9732200556139639</v>
+        <v>0.9732200556139645</v>
       </c>
       <c r="E19">
-        <v>0.9597225480158709</v>
+        <v>0.9597225480158715</v>
       </c>
       <c r="F19">
-        <v>0.9116312844796084</v>
+        <v>0.9116312844796097</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024285029798648</v>
+        <v>1.024285029798649</v>
       </c>
       <c r="J19">
-        <v>0.974965276761689</v>
+        <v>0.9749652767616898</v>
       </c>
       <c r="K19">
-        <v>0.9874505065468318</v>
+        <v>0.9874505065468325</v>
       </c>
       <c r="L19">
-        <v>0.9742062253584152</v>
+        <v>0.9742062253584158</v>
       </c>
       <c r="M19">
-        <v>0.927098264754344</v>
+        <v>0.9270982647543453</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,10 +1105,10 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9421331915881249</v>
+        <v>0.942133191588125</v>
       </c>
       <c r="D20">
-        <v>0.9703312764411862</v>
+        <v>0.9703312764411866</v>
       </c>
       <c r="E20">
         <v>0.9566417810458728</v>
@@ -1123,16 +1123,16 @@
         <v>1.022984996880818</v>
       </c>
       <c r="J20">
-        <v>0.9720926305349692</v>
+        <v>0.9720926305349694</v>
       </c>
       <c r="K20">
-        <v>0.9849166780146392</v>
+        <v>0.9849166780146396</v>
       </c>
       <c r="L20">
         <v>0.9714924275914922</v>
       </c>
       <c r="M20">
-        <v>0.9222285602301237</v>
+        <v>0.922228560230124</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9295332097163062</v>
+        <v>0.929533209716307</v>
       </c>
       <c r="D21">
-        <v>0.9604995105769999</v>
+        <v>0.9604995105770006</v>
       </c>
       <c r="E21">
-        <v>0.9461740414001831</v>
+        <v>0.9461740414001839</v>
       </c>
       <c r="F21">
-        <v>0.8880394419570192</v>
+        <v>0.8880394419570196</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018530077423328</v>
+        <v>1.018530077423329</v>
       </c>
       <c r="J21">
-        <v>0.9623040440939393</v>
+        <v>0.9623040440939401</v>
       </c>
       <c r="K21">
-        <v>0.9762699718898776</v>
+        <v>0.9762699718898783</v>
       </c>
       <c r="L21">
-        <v>0.9622523281323442</v>
+        <v>0.962252328132345</v>
       </c>
       <c r="M21">
-        <v>0.905505294273575</v>
+        <v>0.9055052942735753</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9211168531569249</v>
+        <v>0.9211168531569243</v>
       </c>
       <c r="D22">
-        <v>0.9539332440997043</v>
+        <v>0.9539332440997041</v>
       </c>
       <c r="E22">
-        <v>0.9391979719862139</v>
+        <v>0.9391979719862135</v>
       </c>
       <c r="F22">
-        <v>0.8756802952740228</v>
+        <v>0.8756802952740226</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.015530923903879</v>
       </c>
       <c r="J22">
-        <v>0.955757014537487</v>
+        <v>0.9557570145374865</v>
       </c>
       <c r="K22">
-        <v>0.9704760712722367</v>
+        <v>0.9704760712722363</v>
       </c>
       <c r="L22">
-        <v>0.9560784639401688</v>
+        <v>0.9560784639401684</v>
       </c>
       <c r="M22">
-        <v>0.8941946894991364</v>
+        <v>0.8941946894991362</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9256298376574839</v>
+        <v>0.9256298376574836</v>
       </c>
       <c r="D23">
-        <v>0.9574540622272524</v>
+        <v>0.9574540622272522</v>
       </c>
       <c r="E23">
-        <v>0.9429370344533556</v>
+        <v>0.9429370344533553</v>
       </c>
       <c r="F23">
-        <v>0.8823239755225354</v>
+        <v>0.8823239755225352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01714130376368</v>
+        <v>1.017141303763681</v>
       </c>
       <c r="J23">
-        <v>0.9592684412986326</v>
+        <v>0.9592684412986325</v>
       </c>
       <c r="K23">
         <v>0.9735846095449724</v>
       </c>
       <c r="L23">
-        <v>0.959389110249379</v>
+        <v>0.9593891102493787</v>
       </c>
       <c r="M23">
-        <v>0.9002744488190639</v>
+        <v>0.9002744488190637</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9423369545225773</v>
+        <v>0.942336954522576</v>
       </c>
       <c r="D24">
-        <v>0.9704902830677201</v>
+        <v>0.9704902830677189</v>
       </c>
       <c r="E24">
-        <v>0.9568112942425995</v>
+        <v>0.9568112942425985</v>
       </c>
       <c r="F24">
-        <v>0.9066040489080659</v>
+        <v>0.9066040489080646</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023056664789456</v>
       </c>
       <c r="J24">
-        <v>0.9722507909161584</v>
+        <v>0.9722507909161572</v>
       </c>
       <c r="K24">
-        <v>0.9850562286365793</v>
+        <v>0.9850562286365783</v>
       </c>
       <c r="L24">
-        <v>0.9716418173530161</v>
+        <v>0.9716418173530152</v>
       </c>
       <c r="M24">
-        <v>0.9224970961714176</v>
+        <v>0.9224970961714163</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9599412045353266</v>
+        <v>0.9599412045353247</v>
       </c>
       <c r="D25">
-        <v>0.9842277373523768</v>
+        <v>0.984227737352375</v>
       </c>
       <c r="E25">
-        <v>0.9714837048027538</v>
+        <v>0.971483704802752</v>
       </c>
       <c r="F25">
-        <v>0.9317323365470804</v>
+        <v>0.9317323365470781</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029197110821794</v>
+        <v>1.029197110821793</v>
       </c>
       <c r="J25">
-        <v>0.9858962297460584</v>
+        <v>0.9858962297460564</v>
       </c>
       <c r="K25">
-        <v>0.9970759334532762</v>
+        <v>0.9970759334532743</v>
       </c>
       <c r="L25">
-        <v>0.9845414409838932</v>
+        <v>0.9845414409838914</v>
       </c>
       <c r="M25">
-        <v>0.9454917215323054</v>
+        <v>0.9454917215323032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9728508292580105</v>
+        <v>0.9752188730581149</v>
       </c>
       <c r="D2">
-        <v>0.9942993311171726</v>
+        <v>0.9960907458611787</v>
       </c>
       <c r="E2">
-        <v>0.9822766195062188</v>
+        <v>0.9843141374653067</v>
       </c>
       <c r="F2">
-        <v>0.9499170423184123</v>
+        <v>0.9518978322386441</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033625932782291</v>
+        <v>1.03453452407603</v>
       </c>
       <c r="J2">
-        <v>0.9958750404352186</v>
+        <v>0.9981669191186562</v>
       </c>
       <c r="K2">
-        <v>1.005838660817875</v>
+        <v>1.007604812819843</v>
       </c>
       <c r="L2">
-        <v>0.9939885188857592</v>
+        <v>0.9959964149564589</v>
       </c>
       <c r="M2">
-        <v>0.9621212061639633</v>
+        <v>0.9640706327361651</v>
+      </c>
+      <c r="N2">
+        <v>0.9995844306351506</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9816819546254938</v>
+        <v>0.9840279793434433</v>
       </c>
       <c r="D3">
-        <v>1.001185937311127</v>
+        <v>1.002961951028696</v>
       </c>
       <c r="E3">
-        <v>0.9896754431293733</v>
+        <v>0.9916969500611013</v>
       </c>
       <c r="F3">
-        <v>0.9622575936294583</v>
+        <v>0.964198689119235</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036612288999355</v>
+        <v>1.03751421813178</v>
       </c>
       <c r="J3">
-        <v>1.002684757650735</v>
+        <v>1.004963734819416</v>
       </c>
       <c r="K3">
-        <v>1.011803666304697</v>
+        <v>1.013557072906549</v>
       </c>
       <c r="L3">
-        <v>1.000442155641015</v>
+        <v>1.002437184044858</v>
       </c>
       <c r="M3">
-        <v>0.9733973124475502</v>
+        <v>0.975311119292061</v>
+      </c>
+      <c r="N3">
+        <v>1.006390898593811</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9871753633345896</v>
+        <v>0.989508826311582</v>
       </c>
       <c r="D4">
-        <v>1.005467780198894</v>
+        <v>1.007235069334975</v>
       </c>
       <c r="E4">
-        <v>0.9942841704831433</v>
+        <v>0.9962965985356956</v>
       </c>
       <c r="F4">
-        <v>0.9698983352434711</v>
+        <v>0.9718167515925181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038449727266589</v>
+        <v>1.039347957619955</v>
       </c>
       <c r="J4">
-        <v>1.006912912832464</v>
+        <v>1.00918475864736</v>
       </c>
       <c r="K4">
-        <v>1.015500658845912</v>
+        <v>1.017246950737049</v>
       </c>
       <c r="L4">
-        <v>1.004452073598159</v>
+        <v>1.006439926814771</v>
       </c>
       <c r="M4">
-        <v>0.9803741705650775</v>
+        <v>0.9822676613216239</v>
+      </c>
+      <c r="N4">
+        <v>1.010617916759748</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.98943577320094</v>
+        <v>0.9917643113808685</v>
       </c>
       <c r="D5">
-        <v>1.00722910628125</v>
+        <v>1.008992989637042</v>
       </c>
       <c r="E5">
-        <v>0.9961819353905909</v>
+        <v>0.9981908174451801</v>
       </c>
       <c r="F5">
-        <v>0.973035004530345</v>
+        <v>0.9749445119868638</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039200897164194</v>
+        <v>1.040097702224657</v>
       </c>
       <c r="J5">
-        <v>1.008650787803146</v>
+        <v>1.010919891931833</v>
       </c>
       <c r="K5">
-        <v>1.017018626921459</v>
+        <v>1.018762166703953</v>
       </c>
       <c r="L5">
-        <v>1.006100897388924</v>
+        <v>1.008085977117458</v>
       </c>
       <c r="M5">
-        <v>0.983237063662442</v>
+        <v>0.985122582873952</v>
+      </c>
+      <c r="N5">
+        <v>1.012355514132509</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9898125354383118</v>
+        <v>0.9921402663804835</v>
       </c>
       <c r="D6">
-        <v>1.00752264711231</v>
+        <v>1.009285973084586</v>
       </c>
       <c r="E6">
-        <v>0.996498330208445</v>
+        <v>0.9985066318220833</v>
       </c>
       <c r="F6">
-        <v>0.9735574229915652</v>
+        <v>0.9754654688738081</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039325812093287</v>
+        <v>1.040222385010554</v>
       </c>
       <c r="J6">
-        <v>1.008940341096646</v>
+        <v>1.011208999014459</v>
       </c>
       <c r="K6">
-        <v>1.017271447825775</v>
+        <v>1.019014538698114</v>
       </c>
       <c r="L6">
-        <v>1.006375650861307</v>
+        <v>1.008360278315029</v>
       </c>
       <c r="M6">
-        <v>0.9837138090540878</v>
+        <v>0.9855980210265187</v>
+      </c>
+      <c r="N6">
+        <v>1.012645031780353</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9872057548813583</v>
+        <v>0.9895391507101118</v>
       </c>
       <c r="D7">
-        <v>1.005491463783527</v>
+        <v>1.007258706423465</v>
       </c>
       <c r="E7">
-        <v>0.9943096808982693</v>
+        <v>0.9963220605479777</v>
       </c>
       <c r="F7">
-        <v>0.9699405357235303</v>
+        <v>0.9718588306851653</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038459846314787</v>
+        <v>1.039358057133823</v>
       </c>
       <c r="J7">
-        <v>1.006936286447176</v>
+        <v>1.009208094661865</v>
       </c>
       <c r="K7">
-        <v>1.015521081088388</v>
+        <v>1.017267335305175</v>
       </c>
       <c r="L7">
-        <v>1.004474246981339</v>
+        <v>1.006462062222586</v>
       </c>
       <c r="M7">
-        <v>0.9804126927024703</v>
+        <v>0.9823060748058023</v>
+      </c>
+      <c r="N7">
+        <v>1.010641285914071</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9758835761177838</v>
+        <v>0.9782437979359363</v>
       </c>
       <c r="D8">
-        <v>0.9966646699394723</v>
+        <v>0.9984505996673826</v>
       </c>
       <c r="E8">
-        <v>0.9848160743611749</v>
+        <v>0.9868478921913783</v>
       </c>
       <c r="F8">
-        <v>0.9541634032675134</v>
+        <v>0.9561300930236981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034655766510642</v>
+        <v>1.035561968374856</v>
       </c>
       <c r="J8">
-        <v>0.9982152482864424</v>
+        <v>1.000502491711328</v>
       </c>
       <c r="K8">
-        <v>1.007890010743242</v>
+        <v>1.009651599549392</v>
       </c>
       <c r="L8">
-        <v>0.9962057270319967</v>
+        <v>0.9982090144784393</v>
       </c>
       <c r="M8">
-        <v>0.9660022665816089</v>
+        <v>0.9679390330070714</v>
+      </c>
+      <c r="N8">
+        <v>1.001923320008798</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9540369024443228</v>
+        <v>0.9564600199083132</v>
       </c>
       <c r="D9">
-        <v>0.979620470528853</v>
+        <v>0.9814508452144848</v>
       </c>
       <c r="E9">
-        <v>0.9665567836447662</v>
+        <v>0.9686347254006475</v>
       </c>
       <c r="F9">
-        <v>0.9233505698239509</v>
+        <v>0.925431075001149</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027149575825973</v>
+        <v>1.028075516789074</v>
       </c>
       <c r="J9">
-        <v>0.9813240903159919</v>
+        <v>0.9836498612687149</v>
       </c>
       <c r="K9">
-        <v>0.9930530779888013</v>
+        <v>0.9948522137504769</v>
       </c>
       <c r="L9">
-        <v>0.9802168051784952</v>
+        <v>0.9822580420488815</v>
       </c>
       <c r="M9">
-        <v>0.9378230255630463</v>
+        <v>0.9398621245811403</v>
+      </c>
+      <c r="N9">
+        <v>0.9850467568979326</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9378524930972472</v>
+        <v>0.9403331519358</v>
       </c>
       <c r="D10">
-        <v>0.9669908884420434</v>
+        <v>0.9688624528213438</v>
       </c>
       <c r="E10">
-        <v>0.9530823056005545</v>
+        <v>0.9552028619083271</v>
       </c>
       <c r="F10">
-        <v>0.9001321658629043</v>
+        <v>0.9023184766464448</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021476522956293</v>
+        <v>1.022421271624421</v>
       </c>
       <c r="J10">
-        <v>0.9687689136540919</v>
+        <v>0.9711318015001308</v>
       </c>
       <c r="K10">
-        <v>0.9819828544214629</v>
+        <v>0.9838176226868186</v>
       </c>
       <c r="L10">
-        <v>0.9683536953334965</v>
+        <v>0.9704309566301479</v>
       </c>
       <c r="M10">
-        <v>0.916573486812844</v>
+        <v>0.9187078451926889</v>
+      </c>
+      <c r="N10">
+        <v>0.9725109200486357</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.930358869110319</v>
+        <v>0.9328698667054262</v>
       </c>
       <c r="D11">
-        <v>0.9611437226903569</v>
+        <v>0.9630371634667114</v>
       </c>
       <c r="E11">
-        <v>0.9468591039440064</v>
+        <v>0.9490022395809249</v>
       </c>
       <c r="F11">
-        <v>0.8892448886710639</v>
+        <v>0.8914878936001838</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018823335619299</v>
+        <v>1.019778197118171</v>
       </c>
       <c r="J11">
-        <v>0.9629459647986491</v>
+        <v>0.9653289348613305</v>
       </c>
       <c r="K11">
-        <v>0.9768375969521</v>
+        <v>0.9786915124863377</v>
       </c>
       <c r="L11">
-        <v>0.962857935642342</v>
+        <v>0.9649545412251098</v>
       </c>
       <c r="M11">
-        <v>0.9066085745384125</v>
+        <v>0.9087939765621742</v>
+      </c>
+      <c r="N11">
+        <v>0.9666998126736098</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.927491300544829</v>
+        <v>0.9300145948232357</v>
       </c>
       <c r="D12">
-        <v>0.958906368798393</v>
+        <v>0.9608087047004414</v>
       </c>
       <c r="E12">
-        <v>0.9444803700976596</v>
+        <v>0.9466326755806062</v>
       </c>
       <c r="F12">
-        <v>0.8850530649948546</v>
+        <v>0.8873192485584113</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017804073269394</v>
+        <v>1.018763065620811</v>
       </c>
       <c r="J12">
-        <v>0.9607162547241173</v>
+        <v>0.9631074487899451</v>
       </c>
       <c r="K12">
-        <v>0.9748656036498847</v>
+        <v>0.9767273405742541</v>
       </c>
       <c r="L12">
-        <v>0.9607545690131907</v>
+        <v>0.9628590722170699</v>
       </c>
       <c r="M12">
-        <v>0.9027720871432702</v>
+        <v>0.9049783540727905</v>
+      </c>
+      <c r="N12">
+        <v>0.9644751718371952</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9281104175848538</v>
+        <v>0.9306310234361306</v>
       </c>
       <c r="D13">
-        <v>0.9593894117241305</v>
+        <v>0.9612898015258957</v>
       </c>
       <c r="E13">
-        <v>0.9449938193866987</v>
+        <v>0.9471441192214887</v>
       </c>
       <c r="F13">
-        <v>0.8859593436915574</v>
+        <v>0.8882204495317626</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018024314344576</v>
+        <v>1.018982402086282</v>
       </c>
       <c r="J13">
-        <v>0.9611977218470827</v>
+        <v>0.9635871139854864</v>
       </c>
       <c r="K13">
-        <v>0.9752915041993541</v>
+        <v>0.9771515282861082</v>
       </c>
       <c r="L13">
-        <v>0.9612087045642503</v>
+        <v>0.9633114784709875</v>
       </c>
       <c r="M13">
-        <v>0.903601525883122</v>
+        <v>0.9058032221872127</v>
+      </c>
+      <c r="N13">
+        <v>0.9649555182123325</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.930123624580213</v>
+        <v>0.9326356161606121</v>
       </c>
       <c r="D14">
-        <v>0.9609601747595113</v>
+        <v>0.9628543339676094</v>
       </c>
       <c r="E14">
-        <v>0.9466639052590605</v>
+        <v>0.9488077817569154</v>
       </c>
       <c r="F14">
-        <v>0.88890155885334</v>
+        <v>0.8911464329997557</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018739799481547</v>
+        <v>1.019694994240072</v>
       </c>
       <c r="J14">
-        <v>0.9627630772282704</v>
+        <v>0.9651467103440027</v>
       </c>
       <c r="K14">
-        <v>0.9766758850068318</v>
+        <v>0.9785304315220549</v>
       </c>
       <c r="L14">
-        <v>0.962685388986786</v>
+        <v>0.9647826318000147</v>
       </c>
       <c r="M14">
-        <v>0.9062943419860593</v>
+        <v>0.9084814267346328</v>
+      </c>
+      <c r="N14">
+        <v>0.9665173293765659</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9313525053848953</v>
+        <v>0.9338593332219508</v>
       </c>
       <c r="D15">
-        <v>0.9619190078610095</v>
+        <v>0.9638094359736719</v>
       </c>
       <c r="E15">
-        <v>0.9476837035002441</v>
+        <v>0.9498237319608888</v>
       </c>
       <c r="F15">
-        <v>0.8906939905909993</v>
+        <v>0.8929291624880202</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019176018520367</v>
+        <v>1.020129483279428</v>
       </c>
       <c r="J15">
-        <v>0.9637183945336585</v>
+        <v>0.9660985864790962</v>
       </c>
       <c r="K15">
-        <v>0.9775205179677015</v>
+        <v>0.9793717889879171</v>
       </c>
       <c r="L15">
-        <v>0.9635867338403076</v>
+        <v>0.9656806685344216</v>
       </c>
       <c r="M15">
-        <v>0.9079348753748347</v>
+        <v>0.9101132257051859</v>
+      </c>
+      <c r="N15">
+        <v>0.9674705572849533</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9383386946857275</v>
+        <v>0.9408174708513317</v>
       </c>
       <c r="D16">
-        <v>0.9673702829916467</v>
+        <v>0.9692404932305837</v>
       </c>
       <c r="E16">
-        <v>0.9534864270877601</v>
+        <v>0.9556055844896492</v>
       </c>
       <c r="F16">
-        <v>0.9008353618831368</v>
+        <v>0.9030181766798687</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021648125527687</v>
+        <v>1.022592250628698</v>
       </c>
       <c r="J16">
-        <v>0.9691465202352144</v>
+        <v>0.9715081723648606</v>
       </c>
       <c r="K16">
-        <v>0.9823162788422259</v>
+        <v>0.9841498663873551</v>
       </c>
       <c r="L16">
-        <v>0.9687102212208828</v>
+        <v>0.9707862892320533</v>
       </c>
       <c r="M16">
-        <v>0.9172171167503719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9193483273212515</v>
+      </c>
+      <c r="N16">
+        <v>0.9728878254031637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9425838245258076</v>
+        <v>0.9450465855081065</v>
       </c>
       <c r="D17">
-        <v>0.9706829286231348</v>
+        <v>0.9725416365361393</v>
       </c>
       <c r="E17">
-        <v>0.9570166785979149</v>
+        <v>0.9591239476415266</v>
       </c>
       <c r="F17">
-        <v>0.9069594297835388</v>
+        <v>0.909112604754078</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023143477511381</v>
+        <v>1.024082318724086</v>
       </c>
       <c r="J17">
-        <v>0.9724424047224965</v>
+        <v>0.9747935988991163</v>
       </c>
       <c r="K17">
-        <v>0.985225289492681</v>
+        <v>0.9870488709892689</v>
       </c>
       <c r="L17">
-        <v>0.9718228092960642</v>
+        <v>0.9738887632223666</v>
       </c>
       <c r="M17">
-        <v>0.9228223647062895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.924926887143672</v>
+      </c>
+      <c r="N17">
+        <v>0.9761779176199417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9450139472490006</v>
+        <v>0.9474678726118503</v>
       </c>
       <c r="D18">
-        <v>0.9725792942339919</v>
+        <v>0.9744316695732289</v>
       </c>
       <c r="E18">
-        <v>0.9590389989038178</v>
+        <v>0.9611397184732543</v>
       </c>
       <c r="F18">
-        <v>0.9104528595659475</v>
+        <v>0.9125897554511727</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023997039034785</v>
+        <v>1.024932981735283</v>
       </c>
       <c r="J18">
-        <v>0.9743282331628021</v>
+        <v>0.9766737009831775</v>
       </c>
       <c r="K18">
-        <v>0.986888748653197</v>
+        <v>0.9887068401172723</v>
       </c>
       <c r="L18">
-        <v>0.9736043259630149</v>
+        <v>0.9756647295877211</v>
       </c>
       <c r="M18">
-        <v>0.9260197343875641</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.928109599189509</v>
+      </c>
+      <c r="N18">
+        <v>0.978060689664613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458350536872377</v>
+        <v>0.9482860467681165</v>
       </c>
       <c r="D19">
-        <v>0.9732200556139645</v>
+        <v>0.9750703315193114</v>
       </c>
       <c r="E19">
-        <v>0.9597225480158715</v>
+        <v>0.9618210955650309</v>
       </c>
       <c r="F19">
-        <v>0.9116312844796097</v>
+        <v>0.9137627888554235</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024285029798649</v>
+        <v>1.025220013337572</v>
       </c>
       <c r="J19">
-        <v>0.9749652767616898</v>
+        <v>0.9773088513536363</v>
       </c>
       <c r="K19">
-        <v>0.9874505065468325</v>
+        <v>0.9892667810306804</v>
       </c>
       <c r="L19">
-        <v>0.9742062253584158</v>
+        <v>0.9762647919339644</v>
       </c>
       <c r="M19">
-        <v>0.9270982647543453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9291832751898701</v>
+      </c>
+      <c r="N19">
+        <v>0.9786967420214505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.942133191588125</v>
+        <v>0.9445976172223183</v>
       </c>
       <c r="D20">
-        <v>0.9703312764411866</v>
+        <v>0.9721911785022358</v>
       </c>
       <c r="E20">
-        <v>0.9566417810458728</v>
+        <v>0.9587502847930734</v>
       </c>
       <c r="F20">
-        <v>0.9063106534391849</v>
+        <v>0.9084669011419126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022984996880818</v>
+        <v>1.023924385542746</v>
       </c>
       <c r="J20">
-        <v>0.9720926305349694</v>
+        <v>0.9744449071134316</v>
       </c>
       <c r="K20">
-        <v>0.9849166780146396</v>
+        <v>0.9867412963196236</v>
       </c>
       <c r="L20">
-        <v>0.9714924275914922</v>
+        <v>0.9735594296375403</v>
       </c>
       <c r="M20">
-        <v>0.922228560230124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9243358493902696</v>
+      </c>
+      <c r="N20">
+        <v>0.9758287306519255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.929533209716307</v>
+        <v>0.9320477075324849</v>
       </c>
       <c r="D21">
-        <v>0.9604995105770006</v>
+        <v>0.9623954817058415</v>
       </c>
       <c r="E21">
-        <v>0.9461740414001839</v>
+        <v>0.9483197861989145</v>
       </c>
       <c r="F21">
-        <v>0.8880394419570196</v>
+        <v>0.8902890325588274</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018530077423329</v>
+        <v>1.019486112978985</v>
       </c>
       <c r="J21">
-        <v>0.9623040440939401</v>
+        <v>0.9646893503951428</v>
       </c>
       <c r="K21">
-        <v>0.9762699718898783</v>
+        <v>0.9781261103479224</v>
       </c>
       <c r="L21">
-        <v>0.962252328132345</v>
+        <v>0.964351178579588</v>
       </c>
       <c r="M21">
-        <v>0.9055052942735753</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9076966248440269</v>
+      </c>
+      <c r="N21">
+        <v>0.966059319924119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9211168531569243</v>
+        <v>0.9236689464623028</v>
       </c>
       <c r="D22">
-        <v>0.9539332440997041</v>
+        <v>0.9558564735499163</v>
       </c>
       <c r="E22">
-        <v>0.9391979719862135</v>
+        <v>0.9413717904352029</v>
       </c>
       <c r="F22">
-        <v>0.8756802952740226</v>
+        <v>0.8780012398842829</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015530923903879</v>
+        <v>1.01649965574536</v>
       </c>
       <c r="J22">
-        <v>0.9557570145374865</v>
+        <v>0.9581676409269929</v>
       </c>
       <c r="K22">
-        <v>0.9704760712722363</v>
+        <v>0.9723562518772745</v>
       </c>
       <c r="L22">
-        <v>0.9560784639401684</v>
+        <v>0.9582015789693106</v>
       </c>
       <c r="M22">
-        <v>0.8941946894991362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.896450238835647</v>
+      </c>
+      <c r="N22">
+        <v>0.9595283488804738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9256298376574836</v>
+        <v>0.9281613286283884</v>
       </c>
       <c r="D23">
-        <v>0.9574540622272522</v>
+        <v>0.959362336182474</v>
       </c>
       <c r="E23">
-        <v>0.9429370344533553</v>
+        <v>0.9450954577465028</v>
       </c>
       <c r="F23">
-        <v>0.8823239755225352</v>
+        <v>0.8846056761153063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017141303763681</v>
+        <v>1.018103059127247</v>
       </c>
       <c r="J23">
-        <v>0.9592684412986325</v>
+        <v>0.9616651423446018</v>
       </c>
       <c r="K23">
-        <v>0.9735846095449724</v>
+        <v>0.9754515783018394</v>
       </c>
       <c r="L23">
-        <v>0.9593891102493787</v>
+        <v>0.9614988947081868</v>
       </c>
       <c r="M23">
-        <v>0.9002744488190637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.902494682250929</v>
+      </c>
+      <c r="N23">
+        <v>0.9630308171512645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.942336954522576</v>
+        <v>0.9448006264244873</v>
       </c>
       <c r="D24">
-        <v>0.9704902830677189</v>
+        <v>0.9723496443926271</v>
       </c>
       <c r="E24">
-        <v>0.9568112942425985</v>
+        <v>0.9589192389028764</v>
       </c>
       <c r="F24">
-        <v>0.9066040489080646</v>
+        <v>0.9087589050906753</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023056664789456</v>
+        <v>1.023995805521219</v>
       </c>
       <c r="J24">
-        <v>0.9722507909161572</v>
+        <v>0.9746025772608832</v>
       </c>
       <c r="K24">
-        <v>0.9850562286365783</v>
+        <v>0.986880377392972</v>
       </c>
       <c r="L24">
-        <v>0.9716418173530152</v>
+        <v>0.9737083447308117</v>
       </c>
       <c r="M24">
-        <v>0.9224970961714163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9246031323899778</v>
+      </c>
+      <c r="N24">
+        <v>0.9759866247090717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9599412045353247</v>
+        <v>0.9623457674641671</v>
       </c>
       <c r="D25">
-        <v>0.984227737352375</v>
+        <v>0.9860449275906671</v>
       </c>
       <c r="E25">
-        <v>0.971483704802752</v>
+        <v>0.9735479791651453</v>
       </c>
       <c r="F25">
-        <v>0.9317323365470781</v>
+        <v>0.933779121953757</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029197110821793</v>
+        <v>1.030117119174355</v>
       </c>
       <c r="J25">
-        <v>0.9858962297460564</v>
+        <v>0.9882103685034375</v>
       </c>
       <c r="K25">
-        <v>0.9970759334532743</v>
+        <v>0.9988638111948575</v>
       </c>
       <c r="L25">
-        <v>0.9845414409838914</v>
+        <v>0.9865712946142859</v>
       </c>
       <c r="M25">
-        <v>0.9454917215323032</v>
+        <v>0.9475004770772251</v>
+      </c>
+      <c r="N25">
+        <v>0.989613740576026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9752188730581149</v>
+        <v>0.9929270912850731</v>
       </c>
       <c r="D2">
-        <v>0.9960907458611787</v>
+        <v>1.011477973777558</v>
       </c>
       <c r="E2">
-        <v>0.9843141374653067</v>
-      </c>
-      <c r="F2">
-        <v>0.9518978322386441</v>
+        <v>1.000056039647473</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03453452407603</v>
+        <v>1.038551115610411</v>
       </c>
       <c r="J2">
-        <v>0.9981669191186562</v>
+        <v>1.015321429656857</v>
       </c>
       <c r="K2">
-        <v>1.007604812819843</v>
+        <v>1.022779685071561</v>
       </c>
       <c r="L2">
-        <v>0.9959964149564589</v>
-      </c>
-      <c r="M2">
-        <v>0.9640706327361651</v>
+        <v>1.01151459380386</v>
       </c>
       <c r="N2">
-        <v>0.9995844306351506</v>
+        <v>1.016763302545966</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9840279793434433</v>
+        <v>0.9995751941784174</v>
       </c>
       <c r="D3">
-        <v>1.002961951028696</v>
+        <v>1.016423479431813</v>
       </c>
       <c r="E3">
-        <v>0.9916969500611013</v>
-      </c>
-      <c r="F3">
-        <v>0.964198689119235</v>
+        <v>1.005527620187361</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03751421813178</v>
+        <v>1.040374769800231</v>
       </c>
       <c r="J3">
-        <v>1.004963734819416</v>
+        <v>1.02007744653184</v>
       </c>
       <c r="K3">
-        <v>1.013557072906549</v>
+        <v>1.026850444448575</v>
       </c>
       <c r="L3">
-        <v>1.002437184044858</v>
-      </c>
-      <c r="M3">
-        <v>0.975311119292061</v>
+        <v>1.016090259292024</v>
       </c>
       <c r="N3">
-        <v>1.006390898593811</v>
+        <v>1.021526073510434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.989508826311582</v>
+        <v>1.003756741792079</v>
       </c>
       <c r="D4">
-        <v>1.007235069334975</v>
+        <v>1.019536354417266</v>
       </c>
       <c r="E4">
-        <v>0.9962965985356956</v>
-      </c>
-      <c r="F4">
-        <v>0.9718167515925181</v>
+        <v>1.008975614309837</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039347957619955</v>
+        <v>1.041509827833396</v>
       </c>
       <c r="J4">
-        <v>1.00918475864736</v>
+        <v>1.023064835480692</v>
       </c>
       <c r="K4">
-        <v>1.017246950737049</v>
+        <v>1.029404574892272</v>
       </c>
       <c r="L4">
-        <v>1.006439926814771</v>
-      </c>
-      <c r="M4">
-        <v>0.9822676613216239</v>
+        <v>1.018966905256543</v>
       </c>
       <c r="N4">
-        <v>1.010617916759748</v>
+        <v>1.024517704894252</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9917643113808685</v>
+        <v>1.005487339608633</v>
       </c>
       <c r="D5">
-        <v>1.008992989637042</v>
+        <v>1.02082509827519</v>
       </c>
       <c r="E5">
-        <v>0.9981908174451801</v>
-      </c>
-      <c r="F5">
-        <v>0.9749445119868638</v>
+        <v>1.010404087707898</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040097702224657</v>
+        <v>1.041976652168169</v>
       </c>
       <c r="J5">
-        <v>1.010919891931833</v>
+        <v>1.024300173247326</v>
       </c>
       <c r="K5">
-        <v>1.018762166703953</v>
+        <v>1.030460048872514</v>
       </c>
       <c r="L5">
-        <v>1.008085977117458</v>
-      </c>
-      <c r="M5">
-        <v>0.985122582873952</v>
+        <v>1.020157053145984</v>
       </c>
       <c r="N5">
-        <v>1.012355514132509</v>
+        <v>1.02575479698221</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9921402663804835</v>
+        <v>1.005776352547206</v>
       </c>
       <c r="D6">
-        <v>1.009285973084586</v>
+        <v>1.021040343364469</v>
       </c>
       <c r="E6">
-        <v>0.9985066318220833</v>
-      </c>
-      <c r="F6">
-        <v>0.9754654688738081</v>
+        <v>1.010642729372697</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040222385010554</v>
+        <v>1.04205443825171</v>
       </c>
       <c r="J6">
-        <v>1.011208999014459</v>
+        <v>1.024506413984134</v>
       </c>
       <c r="K6">
-        <v>1.019014538698114</v>
+        <v>1.030636219083139</v>
       </c>
       <c r="L6">
-        <v>1.008360278315029</v>
-      </c>
-      <c r="M6">
-        <v>0.9855980210265187</v>
+        <v>1.020355784792629</v>
       </c>
       <c r="N6">
-        <v>1.012645031780353</v>
+        <v>1.02596133060452</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9895391507101118</v>
+        <v>1.003779971648481</v>
       </c>
       <c r="D7">
-        <v>1.007258706423465</v>
+        <v>1.019553651677388</v>
       </c>
       <c r="E7">
-        <v>0.9963220605479777</v>
-      </c>
-      <c r="F7">
-        <v>0.9718588306851653</v>
+        <v>1.008994783038972</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039358057133823</v>
+        <v>1.04151610572556</v>
       </c>
       <c r="J7">
-        <v>1.009208094661865</v>
+        <v>1.023081421641915</v>
       </c>
       <c r="K7">
-        <v>1.017267335305175</v>
+        <v>1.029418748945267</v>
       </c>
       <c r="L7">
-        <v>1.006462062222586</v>
-      </c>
-      <c r="M7">
-        <v>0.9823060748058023</v>
+        <v>1.018982882294296</v>
       </c>
       <c r="N7">
-        <v>1.010641285914071</v>
+        <v>1.024534314609726</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9782437979359363</v>
+        <v>0.9951996536503179</v>
       </c>
       <c r="D8">
-        <v>0.9984505996673826</v>
+        <v>1.013167990597835</v>
       </c>
       <c r="E8">
-        <v>0.9868478921913783</v>
-      </c>
-      <c r="F8">
-        <v>0.9561300930236981</v>
+        <v>1.001925010135887</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035561968374856</v>
+        <v>1.039176996785024</v>
       </c>
       <c r="J8">
-        <v>1.000502491711328</v>
+        <v>1.016948026076274</v>
       </c>
       <c r="K8">
-        <v>1.009651599549392</v>
+        <v>1.024172499073165</v>
       </c>
       <c r="L8">
-        <v>0.9982090144784393</v>
-      </c>
-      <c r="M8">
-        <v>0.9679390330070714</v>
+        <v>1.01307896892369</v>
       </c>
       <c r="N8">
-        <v>1.001923320008798</v>
+        <v>1.018392208918871</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9564600199083132</v>
+        <v>0.9790874929768081</v>
       </c>
       <c r="D9">
-        <v>0.9814508452144848</v>
+        <v>1.001200284996633</v>
       </c>
       <c r="E9">
-        <v>0.9686347254006475</v>
-      </c>
-      <c r="F9">
-        <v>0.925431075001149</v>
+        <v>0.9887058481358171</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028075516789074</v>
+        <v>1.034690525598246</v>
       </c>
       <c r="J9">
-        <v>0.9836498612687149</v>
+        <v>1.005400971173364</v>
       </c>
       <c r="K9">
-        <v>0.9948522137504769</v>
+        <v>1.014273918384797</v>
       </c>
       <c r="L9">
-        <v>0.9822580420488815</v>
-      </c>
-      <c r="M9">
-        <v>0.9398621245811403</v>
+        <v>1.001984862009647</v>
       </c>
       <c r="N9">
-        <v>0.9850467568979326</v>
+        <v>1.006828755873534</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9403331519358</v>
+        <v>0.9675669496866049</v>
       </c>
       <c r="D10">
-        <v>0.9688624528213438</v>
+        <v>0.9926671529749377</v>
       </c>
       <c r="E10">
-        <v>0.9552028619083271</v>
-      </c>
-      <c r="F10">
-        <v>0.9023184766464448</v>
+        <v>0.97929898097787</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022421271624421</v>
+        <v>1.031422901226774</v>
       </c>
       <c r="J10">
-        <v>0.9711318015001308</v>
+        <v>0.9971291984178294</v>
       </c>
       <c r="K10">
-        <v>0.9838176226868186</v>
+        <v>1.007170078552163</v>
       </c>
       <c r="L10">
-        <v>0.9704309566301479</v>
-      </c>
-      <c r="M10">
-        <v>0.9187078451926889</v>
+        <v>0.9940523356982786</v>
       </c>
       <c r="N10">
-        <v>0.9725109200486357</v>
+        <v>0.9985452362519007</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9328698667054262</v>
+        <v>0.9623647824566933</v>
       </c>
       <c r="D11">
-        <v>0.9630371634667114</v>
+        <v>0.9888217294215067</v>
       </c>
       <c r="E11">
-        <v>0.9490022395809249</v>
-      </c>
-      <c r="F11">
-        <v>0.8914878936001838</v>
+        <v>0.9750636637880779</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019778197118171</v>
+        <v>1.029934274869628</v>
       </c>
       <c r="J11">
-        <v>0.9653289348613305</v>
+        <v>0.9933915984083986</v>
       </c>
       <c r="K11">
-        <v>0.9786915124863377</v>
+        <v>1.003957575951816</v>
       </c>
       <c r="L11">
-        <v>0.9649545412251098</v>
-      </c>
-      <c r="M11">
-        <v>0.9087939765621742</v>
+        <v>0.9904716792517031</v>
       </c>
       <c r="N11">
-        <v>0.9666998126736098</v>
+        <v>0.9948023284217472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9300145948232357</v>
+        <v>0.9603975517829619</v>
       </c>
       <c r="D12">
-        <v>0.9608087047004414</v>
+        <v>0.9873689195685645</v>
       </c>
       <c r="E12">
-        <v>0.9466326755806062</v>
-      </c>
-      <c r="F12">
-        <v>0.8873192485584113</v>
+        <v>0.9734640783483445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018763065620811</v>
+        <v>1.029369471402974</v>
       </c>
       <c r="J12">
-        <v>0.9631074487899451</v>
+        <v>0.9919779521173204</v>
       </c>
       <c r="K12">
-        <v>0.9767273405742541</v>
+        <v>1.002742179118002</v>
       </c>
       <c r="L12">
-        <v>0.9628590722170699</v>
-      </c>
-      <c r="M12">
-        <v>0.9049783540727905</v>
+        <v>0.9891179562496918</v>
       </c>
       <c r="N12">
-        <v>0.9644751718371952</v>
+        <v>0.9933866745907886</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9306310234361306</v>
+        <v>0.9608211581758435</v>
       </c>
       <c r="D13">
-        <v>0.9612898015258957</v>
+        <v>0.9876816903403275</v>
       </c>
       <c r="E13">
-        <v>0.9471441192214887</v>
-      </c>
-      <c r="F13">
-        <v>0.8882204495317626</v>
+        <v>0.9738084250394062</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018982402086282</v>
+        <v>1.029491174028703</v>
       </c>
       <c r="J13">
-        <v>0.9635871139854864</v>
+        <v>0.9922823637908293</v>
       </c>
       <c r="K13">
-        <v>0.9771515282861082</v>
+        <v>1.003003915466976</v>
       </c>
       <c r="L13">
-        <v>0.9633114784709875</v>
-      </c>
-      <c r="M13">
-        <v>0.9058032221872127</v>
+        <v>0.9894094384729024</v>
       </c>
       <c r="N13">
-        <v>0.9649555182123325</v>
+        <v>0.99369151856379</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9326356161606121</v>
+        <v>0.9622029002359117</v>
       </c>
       <c r="D14">
-        <v>0.9628543339676094</v>
+        <v>0.9887021498091533</v>
       </c>
       <c r="E14">
-        <v>0.9488077817569154</v>
-      </c>
-      <c r="F14">
-        <v>0.8911464329997557</v>
+        <v>0.9749319928106089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019694994240072</v>
+        <v>1.029887834873847</v>
       </c>
       <c r="J14">
-        <v>0.9651467103440027</v>
+        <v>0.9932752746906206</v>
       </c>
       <c r="K14">
-        <v>0.9785304315220549</v>
+        <v>1.003857572388995</v>
       </c>
       <c r="L14">
-        <v>0.9647826318000147</v>
-      </c>
-      <c r="M14">
-        <v>0.9084814267346328</v>
+        <v>0.9903602748774769</v>
       </c>
       <c r="N14">
-        <v>0.9665173293765659</v>
+        <v>0.9946858395109479</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9338593332219508</v>
+        <v>0.9630495209279417</v>
       </c>
       <c r="D15">
-        <v>0.9638094359736719</v>
+        <v>0.9893275904500087</v>
       </c>
       <c r="E15">
-        <v>0.9498237319608888</v>
-      </c>
-      <c r="F15">
-        <v>0.8929291624880202</v>
+        <v>0.975620696384205</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020129483279428</v>
+        <v>1.03013063392559</v>
       </c>
       <c r="J15">
-        <v>0.9660985864790962</v>
+        <v>0.9938836215045337</v>
       </c>
       <c r="K15">
-        <v>0.9793717889879171</v>
+        <v>1.004380554315007</v>
       </c>
       <c r="L15">
-        <v>0.9656806685344216</v>
-      </c>
-      <c r="M15">
-        <v>0.9101132257051859</v>
+        <v>0.9909429176383844</v>
       </c>
       <c r="N15">
-        <v>0.9674705572849533</v>
+        <v>0.995295050247115</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9408174708513317</v>
+        <v>0.9679074658237248</v>
       </c>
       <c r="D16">
-        <v>0.9692404932305837</v>
+        <v>0.9929190379435894</v>
       </c>
       <c r="E16">
-        <v>0.9556055844896492</v>
-      </c>
-      <c r="F16">
-        <v>0.9030181766798687</v>
+        <v>0.9795764805763526</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022592250628698</v>
+        <v>1.031520078201888</v>
       </c>
       <c r="J16">
-        <v>0.9715081723648606</v>
+        <v>0.9973738079935522</v>
       </c>
       <c r="K16">
-        <v>0.9841498663873551</v>
+        <v>1.00738027164917</v>
       </c>
       <c r="L16">
-        <v>0.9707862892320533</v>
-      </c>
-      <c r="M16">
-        <v>0.9193483273212515</v>
+        <v>0.9942867508753072</v>
       </c>
       <c r="N16">
-        <v>0.9728878254031637</v>
+        <v>0.9987901932012777</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9450465855081065</v>
+        <v>0.9708956328119989</v>
       </c>
       <c r="D17">
-        <v>0.9725416365361393</v>
+        <v>0.9951303287938918</v>
       </c>
       <c r="E17">
-        <v>0.9591239476415266</v>
-      </c>
-      <c r="F17">
-        <v>0.909112604754078</v>
+        <v>0.9820130713300518</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024082318724086</v>
+        <v>1.032371375381949</v>
       </c>
       <c r="J17">
-        <v>0.9747935988991163</v>
+        <v>0.9995200938792763</v>
       </c>
       <c r="K17">
-        <v>0.9870488709892689</v>
+        <v>1.009224283145935</v>
       </c>
       <c r="L17">
-        <v>0.9738887632223666</v>
-      </c>
-      <c r="M17">
-        <v>0.924926887143672</v>
+        <v>0.9963440020571257</v>
       </c>
       <c r="N17">
-        <v>0.9761779176199417</v>
+        <v>1.000939527059142</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9474678726118503</v>
+        <v>0.9726181679645972</v>
       </c>
       <c r="D18">
-        <v>0.9744316695732289</v>
+        <v>0.996405748726484</v>
       </c>
       <c r="E18">
-        <v>0.9611397184732543</v>
-      </c>
-      <c r="F18">
-        <v>0.9125897554511727</v>
+        <v>0.9834188052719186</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024932981735283</v>
+        <v>1.032860866984622</v>
       </c>
       <c r="J18">
-        <v>0.9766737009831775</v>
+        <v>1.000757087919167</v>
       </c>
       <c r="K18">
-        <v>0.9887068401172723</v>
+        <v>1.010286813391373</v>
       </c>
       <c r="L18">
-        <v>0.9756647295877211</v>
-      </c>
-      <c r="M18">
-        <v>0.928109599189509</v>
+        <v>0.9975300244117346</v>
       </c>
       <c r="N18">
-        <v>0.978060689664613</v>
+        <v>1.002178277772454</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9482860467681165</v>
+        <v>0.9732021256621746</v>
       </c>
       <c r="D19">
-        <v>0.9750703315193114</v>
+        <v>0.9968382457404543</v>
       </c>
       <c r="E19">
-        <v>0.9618210955650309</v>
-      </c>
-      <c r="F19">
-        <v>0.9137627888554235</v>
+        <v>0.9838955555942979</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025220013337572</v>
+        <v>1.033026596609762</v>
       </c>
       <c r="J19">
-        <v>0.9773088513536363</v>
+        <v>1.00117639859624</v>
       </c>
       <c r="K19">
-        <v>0.9892667810306804</v>
+        <v>1.010646941467507</v>
       </c>
       <c r="L19">
-        <v>0.9762647919339644</v>
-      </c>
-      <c r="M19">
-        <v>0.9291832751898701</v>
+        <v>0.99793211467332</v>
       </c>
       <c r="N19">
-        <v>0.9786967420214505</v>
+        <v>1.002598183918785</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9445976172223183</v>
+        <v>0.9705771613329877</v>
       </c>
       <c r="D20">
-        <v>0.9721911785022358</v>
+        <v>0.9948945790816652</v>
       </c>
       <c r="E20">
-        <v>0.9587502847930734</v>
-      </c>
-      <c r="F20">
-        <v>0.9084669011419126</v>
+        <v>0.9817532642791666</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023924385542746</v>
+        <v>1.032280774436402</v>
       </c>
       <c r="J20">
-        <v>0.9744449071134316</v>
+        <v>0.9992913718581946</v>
       </c>
       <c r="K20">
-        <v>0.9867412963196236</v>
+        <v>1.009027799172687</v>
       </c>
       <c r="L20">
-        <v>0.9735594296375403</v>
-      </c>
-      <c r="M20">
-        <v>0.9243358493902696</v>
+        <v>0.9961247324362521</v>
       </c>
       <c r="N20">
-        <v>0.9758287306519255</v>
+        <v>1.000710480226556</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9320477075324849</v>
+        <v>0.9617969996901689</v>
       </c>
       <c r="D21">
-        <v>0.9623954817058415</v>
+        <v>0.9884023406242057</v>
       </c>
       <c r="E21">
-        <v>0.9483197861989145</v>
-      </c>
-      <c r="F21">
-        <v>0.8902890325588274</v>
+        <v>0.9746018765352387</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019486112978985</v>
+        <v>1.029771362339565</v>
       </c>
       <c r="J21">
-        <v>0.9646893503951428</v>
+        <v>0.9929836030920564</v>
       </c>
       <c r="K21">
-        <v>0.9781261103479224</v>
+        <v>1.00360681660359</v>
       </c>
       <c r="L21">
-        <v>0.964351178579588</v>
-      </c>
-      <c r="M21">
-        <v>0.9076966248440269</v>
+        <v>0.9900809472219795</v>
       </c>
       <c r="N21">
-        <v>0.966059319924119</v>
+        <v>0.9943937537052584</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9236689464623028</v>
+        <v>0.95607291255822</v>
       </c>
       <c r="D22">
-        <v>0.9558564735499163</v>
+        <v>0.984177891262166</v>
       </c>
       <c r="E22">
-        <v>0.9413717904352029</v>
-      </c>
-      <c r="F22">
-        <v>0.8780012398842829</v>
+        <v>0.9699515752834454</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01649965574536</v>
+        <v>1.02812451043158</v>
       </c>
       <c r="J22">
-        <v>0.9581676409269929</v>
+        <v>0.9888699544171671</v>
       </c>
       <c r="K22">
-        <v>0.9723562518772745</v>
+        <v>1.000069441185307</v>
       </c>
       <c r="L22">
-        <v>0.9582015789693106</v>
-      </c>
-      <c r="M22">
-        <v>0.896450238835647</v>
+        <v>0.9861427611664106</v>
       </c>
       <c r="N22">
-        <v>0.9595283488804738</v>
+        <v>0.9902742631774083</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9281613286283884</v>
+        <v>0.9591276924654104</v>
       </c>
       <c r="D23">
-        <v>0.959362336182474</v>
+        <v>0.9864315313190007</v>
       </c>
       <c r="E23">
-        <v>0.9450954577465028</v>
-      </c>
-      <c r="F23">
-        <v>0.8846056761153063</v>
+        <v>0.9724321286944271</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018103059127247</v>
+        <v>1.029004373246611</v>
       </c>
       <c r="J23">
-        <v>0.9616651423446018</v>
+        <v>0.9910653796462641</v>
       </c>
       <c r="K23">
-        <v>0.9754515783018394</v>
+        <v>1.001957491132741</v>
       </c>
       <c r="L23">
-        <v>0.9614988947081868</v>
-      </c>
-      <c r="M23">
-        <v>0.902494682250929</v>
+        <v>0.9882442278285524</v>
       </c>
       <c r="N23">
-        <v>0.9630308171512645</v>
+        <v>0.9924728061621495</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9448006264244873</v>
+        <v>0.9707211277572628</v>
       </c>
       <c r="D24">
-        <v>0.9723496443926271</v>
+        <v>0.9950011485582996</v>
       </c>
       <c r="E24">
-        <v>0.9589192389028764</v>
-      </c>
-      <c r="F24">
-        <v>0.9087589050906753</v>
+        <v>0.981870707613826</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023995805521219</v>
+        <v>1.032321734849615</v>
       </c>
       <c r="J24">
-        <v>0.9746025772608832</v>
+        <v>0.9993947673921479</v>
       </c>
       <c r="K24">
-        <v>0.986880377392972</v>
+        <v>1.009116622032206</v>
       </c>
       <c r="L24">
-        <v>0.9737083447308117</v>
-      </c>
-      <c r="M24">
-        <v>0.9246031323899778</v>
+        <v>0.9962238538771978</v>
       </c>
       <c r="N24">
-        <v>0.9759866247090717</v>
+        <v>1.000814022594027</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9623457674641671</v>
+        <v>0.9833812906511873</v>
       </c>
       <c r="D25">
-        <v>0.9860449275906671</v>
+        <v>1.004386130284983</v>
       </c>
       <c r="E25">
-        <v>0.9735479791651453</v>
-      </c>
-      <c r="F25">
-        <v>0.933779121953757</v>
+        <v>0.9922214951368007</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030117119174355</v>
+        <v>1.035896643825056</v>
       </c>
       <c r="J25">
-        <v>0.9882103685034375</v>
+        <v>1.008481182799777</v>
       </c>
       <c r="K25">
-        <v>0.9988638111948575</v>
+        <v>1.016916736679151</v>
       </c>
       <c r="L25">
-        <v>0.9865712946142859</v>
-      </c>
-      <c r="M25">
-        <v>0.9475004770772251</v>
+        <v>1.004941774576902</v>
       </c>
       <c r="N25">
-        <v>0.989613740576026</v>
+        <v>1.009913341753762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9929270912850731</v>
+        <v>0.9822290658394628</v>
       </c>
       <c r="D2">
-        <v>1.011477973777558</v>
+        <v>1.003209498202616</v>
       </c>
       <c r="E2">
-        <v>1.000056039647473</v>
+        <v>0.9907323749706974</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038551115610411</v>
+        <v>1.035794149501813</v>
       </c>
       <c r="J2">
-        <v>1.015321429656857</v>
+        <v>1.004954613038727</v>
       </c>
       <c r="K2">
-        <v>1.022779685071561</v>
+        <v>1.014624299981517</v>
       </c>
       <c r="L2">
-        <v>1.01151459380386</v>
+        <v>1.002322350528716</v>
       </c>
       <c r="N2">
-        <v>1.016763302545966</v>
+        <v>1.006381763859147</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995751941784174</v>
+        <v>0.9897110917395512</v>
       </c>
       <c r="D3">
-        <v>1.016423479431813</v>
+        <v>1.008749456568469</v>
       </c>
       <c r="E3">
-        <v>1.005527620187361</v>
+        <v>0.9969256172822966</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040374769800231</v>
+        <v>1.037666944028384</v>
       </c>
       <c r="J3">
-        <v>1.02007744653184</v>
+        <v>1.010486227505508</v>
       </c>
       <c r="K3">
-        <v>1.026850444448575</v>
+        <v>1.01927159724881</v>
       </c>
       <c r="L3">
-        <v>1.016090259292024</v>
+        <v>1.007597987139906</v>
       </c>
       <c r="N3">
-        <v>1.021526073510434</v>
+        <v>1.011921233852956</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003756741792079</v>
+        <v>0.9944030396730957</v>
       </c>
       <c r="D4">
-        <v>1.019536354417266</v>
+        <v>1.01222562574446</v>
       </c>
       <c r="E4">
-        <v>1.008975614309837</v>
+        <v>1.0008162787311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041509827833396</v>
+        <v>1.038828092498418</v>
       </c>
       <c r="J4">
-        <v>1.023064835480692</v>
+        <v>1.013951008010425</v>
       </c>
       <c r="K4">
-        <v>1.029404574892272</v>
+        <v>1.022178703975398</v>
       </c>
       <c r="L4">
-        <v>1.018966905256543</v>
+        <v>1.01090486196156</v>
       </c>
       <c r="N4">
-        <v>1.024517704894252</v>
+        <v>1.015390934743606</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005487339608633</v>
+        <v>0.9963417932633452</v>
       </c>
       <c r="D5">
-        <v>1.02082509827519</v>
+        <v>1.013662374009161</v>
       </c>
       <c r="E5">
-        <v>1.010404087707898</v>
+        <v>1.002425487253217</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041976652168169</v>
+        <v>1.039304631205474</v>
       </c>
       <c r="J5">
-        <v>1.024300173247326</v>
+        <v>1.015381630034097</v>
       </c>
       <c r="K5">
-        <v>1.030460048872514</v>
+        <v>1.023378118782091</v>
       </c>
       <c r="L5">
-        <v>1.020157053145984</v>
+        <v>1.012270858921057</v>
       </c>
       <c r="N5">
-        <v>1.02575479698221</v>
+        <v>1.016823588414646</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005776352547206</v>
+        <v>0.9966653957133615</v>
       </c>
       <c r="D6">
-        <v>1.021040343364469</v>
+        <v>1.013902203143805</v>
       </c>
       <c r="E6">
-        <v>1.010642729372697</v>
+        <v>1.002694172985661</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04205443825171</v>
+        <v>1.039383977843169</v>
       </c>
       <c r="J6">
-        <v>1.024506413984134</v>
+        <v>1.01562035465435</v>
       </c>
       <c r="K6">
-        <v>1.030636219083139</v>
+        <v>1.023578205981988</v>
       </c>
       <c r="L6">
-        <v>1.020355784792629</v>
+        <v>1.01249883330915</v>
       </c>
       <c r="N6">
-        <v>1.02596133060452</v>
+        <v>1.017062652051242</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003779971648481</v>
+        <v>0.9944290754186064</v>
       </c>
       <c r="D7">
-        <v>1.019553651677388</v>
+        <v>1.012244918729338</v>
       </c>
       <c r="E7">
-        <v>1.008994783038972</v>
+        <v>1.000837882958409</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04151610572556</v>
+        <v>1.038834504984127</v>
       </c>
       <c r="J7">
-        <v>1.023081421641915</v>
+        <v>1.013970224276486</v>
       </c>
       <c r="K7">
-        <v>1.029418748945267</v>
+        <v>1.022194818416737</v>
       </c>
       <c r="L7">
-        <v>1.018982882294296</v>
+        <v>1.010923207910068</v>
       </c>
       <c r="N7">
-        <v>1.024534314609726</v>
+        <v>1.015410178298969</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9951996536503179</v>
+        <v>0.9847898708671421</v>
       </c>
       <c r="D8">
-        <v>1.013167990597835</v>
+        <v>1.005105082997656</v>
       </c>
       <c r="E8">
-        <v>1.001925010135887</v>
+        <v>0.9928505550684195</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039176996785024</v>
+        <v>1.036437891541164</v>
       </c>
       <c r="J8">
-        <v>1.016948026076274</v>
+        <v>1.006848678858703</v>
       </c>
       <c r="K8">
-        <v>1.024172499073165</v>
+        <v>1.01621634390561</v>
       </c>
       <c r="L8">
-        <v>1.01307896892369</v>
+        <v>1.004128249035032</v>
       </c>
       <c r="N8">
-        <v>1.018392208918871</v>
+        <v>1.00827851946984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9790874929768081</v>
+        <v>0.9665582682076302</v>
       </c>
       <c r="D9">
-        <v>1.001200284996633</v>
+        <v>0.991624770596446</v>
       </c>
       <c r="E9">
-        <v>0.9887058481358171</v>
+        <v>0.9778049744291476</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034690525598246</v>
+        <v>1.031800485120001</v>
       </c>
       <c r="J9">
-        <v>1.005400971173364</v>
+        <v>0.9933498397308743</v>
       </c>
       <c r="K9">
-        <v>1.014273918384797</v>
+        <v>1.004855207473881</v>
       </c>
       <c r="L9">
-        <v>1.001984862009647</v>
+        <v>0.9912687162353891</v>
       </c>
       <c r="N9">
-        <v>1.006828755873534</v>
+        <v>0.9947605104421116</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9675669496866049</v>
+        <v>0.9534046829918051</v>
       </c>
       <c r="D10">
-        <v>0.9926671529749377</v>
+        <v>0.9819265964948475</v>
       </c>
       <c r="E10">
-        <v>0.97929898097787</v>
+        <v>0.9670008448967762</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031422901226774</v>
+        <v>1.028388965519696</v>
       </c>
       <c r="J10">
-        <v>0.9971291984178294</v>
+        <v>0.9835972472528827</v>
       </c>
       <c r="K10">
-        <v>1.007170078552163</v>
+        <v>0.9966300236439213</v>
       </c>
       <c r="L10">
-        <v>0.9940523356982786</v>
+        <v>0.9819926146312297</v>
       </c>
       <c r="N10">
-        <v>0.9985452362519007</v>
+        <v>0.9849940681641631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9623647824566933</v>
+        <v>0.9474292120647932</v>
       </c>
       <c r="D11">
-        <v>0.9888217294215067</v>
+        <v>0.9775302723075008</v>
       </c>
       <c r="E11">
-        <v>0.9750636637880779</v>
+        <v>0.9621070600487234</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029934274869628</v>
+        <v>1.026824928611602</v>
       </c>
       <c r="J11">
-        <v>0.9933915984083986</v>
+        <v>0.9791652064908688</v>
       </c>
       <c r="K11">
-        <v>1.003957575951816</v>
+        <v>0.9928887505910193</v>
       </c>
       <c r="L11">
-        <v>0.9904716792517031</v>
+        <v>0.9777807991168124</v>
       </c>
       <c r="N11">
-        <v>0.9948023284217472</v>
+        <v>0.9805557333959047</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9603975517829619</v>
+        <v>0.9451633319399613</v>
       </c>
       <c r="D12">
-        <v>0.9873689195685645</v>
+        <v>0.9758648912991356</v>
       </c>
       <c r="E12">
-        <v>0.9734640783483445</v>
+        <v>0.9602537330238612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029369471402974</v>
+        <v>1.026229844473158</v>
       </c>
       <c r="J12">
-        <v>0.9919779521173204</v>
+        <v>0.9774845102777981</v>
       </c>
       <c r="K12">
-        <v>1.002742179118002</v>
+        <v>0.9914695644109416</v>
       </c>
       <c r="L12">
-        <v>0.9891179562496918</v>
+        <v>0.9761841908874377</v>
       </c>
       <c r="N12">
-        <v>0.9933866745907886</v>
+        <v>0.978872650401433</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9608211581758435</v>
+        <v>0.9456515425293626</v>
       </c>
       <c r="D13">
-        <v>0.9876816903403275</v>
+        <v>0.9762236361440533</v>
       </c>
       <c r="E13">
-        <v>0.9738084250394062</v>
+        <v>0.9606529428851862</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029491174028703</v>
+        <v>1.026358150606341</v>
       </c>
       <c r="J13">
-        <v>0.9922823637908293</v>
+        <v>0.9778466369598069</v>
       </c>
       <c r="K13">
-        <v>1.003003915466976</v>
+        <v>0.9917753642463355</v>
       </c>
       <c r="L13">
-        <v>0.9894094384729024</v>
+        <v>0.9765281734423785</v>
       </c>
       <c r="N13">
-        <v>0.99369151856379</v>
+        <v>0.9792352913448665</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9622029002359117</v>
+        <v>0.9472428856072109</v>
       </c>
       <c r="D14">
-        <v>0.9887021498091533</v>
+        <v>0.9773932897298788</v>
       </c>
       <c r="E14">
-        <v>0.9749319928106089</v>
+        <v>0.9619546087725327</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029887834873847</v>
+        <v>1.026776033863701</v>
       </c>
       <c r="J14">
-        <v>0.9932752746906206</v>
+        <v>0.9790270011600826</v>
       </c>
       <c r="K14">
-        <v>1.003857572388995</v>
+        <v>0.9927720579982805</v>
       </c>
       <c r="L14">
-        <v>0.9903602748774769</v>
+        <v>0.9776494966315563</v>
       </c>
       <c r="N14">
-        <v>0.9946858395109479</v>
+        <v>0.9804173317976964</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630495209279417</v>
+        <v>0.9482170879567628</v>
       </c>
       <c r="D15">
-        <v>0.9893275904500087</v>
+        <v>0.9781095694967908</v>
       </c>
       <c r="E15">
-        <v>0.975620696384205</v>
+        <v>0.9627517938306983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03013063392559</v>
+        <v>1.027031597953945</v>
       </c>
       <c r="J15">
-        <v>0.9938836215045337</v>
+        <v>0.9797496013667294</v>
       </c>
       <c r="K15">
-        <v>1.004380554315007</v>
+        <v>0.9933821624044669</v>
       </c>
       <c r="L15">
-        <v>0.9909429176383844</v>
+        <v>0.978336029126325</v>
       </c>
       <c r="N15">
-        <v>0.995295050247115</v>
+        <v>0.9811409581795203</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9679074658237248</v>
+        <v>0.9537950071569089</v>
       </c>
       <c r="D16">
-        <v>0.9929190379435894</v>
+        <v>0.9822139860578205</v>
       </c>
       <c r="E16">
-        <v>0.9795764805763526</v>
+        <v>0.9673208270318067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031520078201888</v>
+        <v>1.028490846766875</v>
       </c>
       <c r="J16">
-        <v>0.9973738079935522</v>
+        <v>0.9838867329632363</v>
       </c>
       <c r="K16">
-        <v>1.00738027164917</v>
+        <v>0.9968743266970366</v>
       </c>
       <c r="L16">
-        <v>0.9942867508753072</v>
+        <v>0.982267793857997</v>
       </c>
       <c r="N16">
-        <v>0.9987901932012777</v>
+        <v>0.9852839649774298</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9708956328119989</v>
+        <v>0.9572161212426736</v>
       </c>
       <c r="D17">
-        <v>0.9951303287938918</v>
+        <v>0.9847339879419758</v>
       </c>
       <c r="E17">
-        <v>0.9820130713300518</v>
+        <v>0.9701270484628788</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032371375381949</v>
+        <v>1.029382227296067</v>
       </c>
       <c r="J17">
-        <v>0.9995200938792763</v>
+        <v>0.9864238561716253</v>
       </c>
       <c r="K17">
-        <v>1.009224283145935</v>
+        <v>0.9990150870670462</v>
       </c>
       <c r="L17">
-        <v>0.9963440020571257</v>
+        <v>0.9846799487083213</v>
       </c>
       <c r="N17">
-        <v>1.000939527059142</v>
+        <v>0.9878246911917866</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9726181679645972</v>
+        <v>0.9591849132571539</v>
       </c>
       <c r="D18">
-        <v>0.996405748726484</v>
+        <v>0.9861850676715553</v>
       </c>
       <c r="E18">
-        <v>0.9834188052719186</v>
+        <v>0.9717433111224494</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032860866984622</v>
+        <v>1.029893857755277</v>
       </c>
       <c r="J18">
-        <v>1.000757087919167</v>
+        <v>0.9878837666960122</v>
       </c>
       <c r="K18">
-        <v>1.010286813391373</v>
+        <v>1.000246603278545</v>
       </c>
       <c r="L18">
-        <v>0.9975300244117346</v>
+        <v>0.9860682938062271</v>
       </c>
       <c r="N18">
-        <v>1.002178277772454</v>
+        <v>0.9892866749565723</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9732021256621746</v>
+        <v>0.9598518143086803</v>
       </c>
       <c r="D19">
-        <v>0.9968382457404543</v>
+        <v>0.9866767394148399</v>
       </c>
       <c r="E19">
-        <v>0.9838955555942979</v>
+        <v>0.9722910173247137</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033026596609762</v>
+        <v>1.030066933881697</v>
       </c>
       <c r="J19">
-        <v>1.00117639859624</v>
+        <v>0.9883782596605307</v>
       </c>
       <c r="K19">
-        <v>1.010646941467507</v>
+        <v>1.000663679771904</v>
       </c>
       <c r="L19">
-        <v>0.99793211467332</v>
+        <v>0.9865386042531146</v>
       </c>
       <c r="N19">
-        <v>1.002598183918785</v>
+        <v>0.9897818701578198</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9705771613329877</v>
+        <v>0.9568518573184633</v>
       </c>
       <c r="D20">
-        <v>0.9948945790816652</v>
+        <v>0.9844655786448092</v>
       </c>
       <c r="E20">
-        <v>0.9817532642791666</v>
+        <v>0.9698281155332227</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032280774436402</v>
+        <v>1.029287456151173</v>
       </c>
       <c r="J20">
-        <v>0.9992913718581946</v>
+        <v>0.9861537309612425</v>
       </c>
       <c r="K20">
-        <v>1.009027799172687</v>
+        <v>0.998787195014571</v>
       </c>
       <c r="L20">
-        <v>0.9961247324362521</v>
+        <v>0.9844230928742281</v>
       </c>
       <c r="N20">
-        <v>1.000710480226556</v>
+        <v>0.9875541823726215</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9617969996901689</v>
+        <v>0.9467755909099653</v>
       </c>
       <c r="D21">
-        <v>0.9884023406242057</v>
+        <v>0.9770497744798694</v>
       </c>
       <c r="E21">
-        <v>0.9746018765352387</v>
+        <v>0.9615723099125632</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029771362339565</v>
+        <v>1.026653377232951</v>
       </c>
       <c r="J21">
-        <v>0.9929836030920564</v>
+        <v>0.9786803904207529</v>
       </c>
       <c r="K21">
-        <v>1.00360681660359</v>
+        <v>0.9924793930961281</v>
       </c>
       <c r="L21">
-        <v>0.9900809472219795</v>
+        <v>0.9773202071425798</v>
       </c>
       <c r="N21">
-        <v>0.9943937537052584</v>
+        <v>0.9800702288313601</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.95607291255822</v>
+        <v>0.9401696361396292</v>
       </c>
       <c r="D22">
-        <v>0.984177891262166</v>
+        <v>0.9721980766084527</v>
       </c>
       <c r="E22">
-        <v>0.9699515752834454</v>
+        <v>0.9561739177888858</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02812451043158</v>
+        <v>1.024914814283356</v>
       </c>
       <c r="J22">
-        <v>0.9888699544171671</v>
+        <v>0.9737805266417231</v>
       </c>
       <c r="K22">
-        <v>1.000069441185307</v>
+        <v>0.988341173818007</v>
       </c>
       <c r="L22">
-        <v>0.9861427611664106</v>
+        <v>0.9726666127377054</v>
       </c>
       <c r="N22">
-        <v>0.9902742631774083</v>
+        <v>0.9751634066837418</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9591276924654104</v>
+        <v>0.9436988223907419</v>
       </c>
       <c r="D23">
-        <v>0.9864315313190007</v>
+        <v>0.974789017831305</v>
       </c>
       <c r="E23">
-        <v>0.9724321286944271</v>
+        <v>0.9590565711719089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029004373246611</v>
+        <v>1.02584467510366</v>
       </c>
       <c r="J23">
-        <v>0.9910653796462641</v>
+        <v>0.9763982224459544</v>
       </c>
       <c r="K23">
-        <v>1.001957491132741</v>
+        <v>0.9905521837627657</v>
       </c>
       <c r="L23">
-        <v>0.9882442278285524</v>
+        <v>0.9751524169979988</v>
       </c>
       <c r="N23">
-        <v>0.9924728061621495</v>
+        <v>0.9777848199162693</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9707211277572628</v>
+        <v>0.9570165346575513</v>
       </c>
       <c r="D24">
-        <v>0.9950011485582996</v>
+        <v>0.9845869191269105</v>
       </c>
       <c r="E24">
-        <v>0.981870707613826</v>
+        <v>0.969963253754706</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032321734849615</v>
+        <v>1.029330304711046</v>
       </c>
       <c r="J24">
-        <v>0.9993947673921479</v>
+        <v>0.986275850345794</v>
       </c>
       <c r="K24">
-        <v>1.009116622032206</v>
+        <v>0.9988902224460023</v>
       </c>
       <c r="L24">
-        <v>0.9962238538771978</v>
+        <v>0.9845392123141913</v>
       </c>
       <c r="N24">
-        <v>1.000814022594027</v>
+        <v>0.9876764751807061</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9833812906511873</v>
+        <v>0.9714346657080409</v>
       </c>
       <c r="D25">
-        <v>1.004386130284983</v>
+        <v>0.9952265271161663</v>
       </c>
       <c r="E25">
-        <v>0.9922214951368007</v>
+        <v>0.9818212555854285</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035896643825056</v>
+        <v>1.033052421026028</v>
       </c>
       <c r="J25">
-        <v>1.008481182799777</v>
+        <v>0.9969631498395186</v>
       </c>
       <c r="K25">
-        <v>1.016916736679151</v>
+        <v>1.0078993998438</v>
       </c>
       <c r="L25">
-        <v>1.004941774576902</v>
+        <v>0.9947084843665837</v>
       </c>
       <c r="N25">
-        <v>1.009913341753762</v>
+        <v>0.9983789518655622</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9822290658394628</v>
+        <v>1.02902903341425</v>
       </c>
       <c r="D2">
-        <v>1.003209498202616</v>
+        <v>1.032114794810221</v>
       </c>
       <c r="E2">
-        <v>0.9907323749706974</v>
+        <v>1.02887243402806</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035794149501813</v>
+        <v>1.030244821884919</v>
       </c>
       <c r="J2">
-        <v>1.004954613038727</v>
+        <v>1.034178074952713</v>
       </c>
       <c r="K2">
-        <v>1.014624299981517</v>
+        <v>1.034920958377131</v>
       </c>
       <c r="L2">
-        <v>1.002322350528716</v>
+        <v>1.031687988137549</v>
       </c>
       <c r="N2">
-        <v>1.006381763859147</v>
+        <v>1.035646726441037</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9897110917395512</v>
+        <v>1.030499042817314</v>
       </c>
       <c r="D3">
-        <v>1.008749456568469</v>
+        <v>1.033207224475991</v>
       </c>
       <c r="E3">
-        <v>0.9969256172822966</v>
+        <v>1.030136745897304</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037666944028384</v>
+        <v>1.030523109921155</v>
       </c>
       <c r="J3">
-        <v>1.010486227505508</v>
+        <v>1.035286280431448</v>
       </c>
       <c r="K3">
-        <v>1.01927159724881</v>
+        <v>1.03582133351086</v>
       </c>
       <c r="L3">
-        <v>1.007597987139906</v>
+        <v>1.032759097327895</v>
       </c>
       <c r="N3">
-        <v>1.011921233852956</v>
+        <v>1.036756505698657</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9944030396730957</v>
+        <v>1.03144863523407</v>
       </c>
       <c r="D4">
-        <v>1.01222562574446</v>
+        <v>1.033912465228322</v>
       </c>
       <c r="E4">
-        <v>1.0008162787311</v>
+        <v>1.030953718557134</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038828092498418</v>
+        <v>1.030701133404464</v>
       </c>
       <c r="J4">
-        <v>1.013951008010425</v>
+        <v>1.036001403749696</v>
       </c>
       <c r="K4">
-        <v>1.022178703975398</v>
+        <v>1.036401720575996</v>
       </c>
       <c r="L4">
-        <v>1.01090486196156</v>
+        <v>1.03345051212698</v>
       </c>
       <c r="N4">
-        <v>1.015390934743606</v>
+        <v>1.037472644574042</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9963417932633452</v>
+        <v>1.031847467667991</v>
       </c>
       <c r="D5">
-        <v>1.013662374009161</v>
+        <v>1.034208561536003</v>
       </c>
       <c r="E5">
-        <v>1.002425487253217</v>
+        <v>1.031296910621233</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039304631205474</v>
+        <v>1.030775485798795</v>
       </c>
       <c r="J5">
-        <v>1.015381630034097</v>
+        <v>1.036301577599242</v>
       </c>
       <c r="K5">
-        <v>1.023378118782091</v>
+        <v>1.036645188890909</v>
       </c>
       <c r="L5">
-        <v>1.012270858921057</v>
+        <v>1.033740789260599</v>
       </c>
       <c r="N5">
-        <v>1.016823588414646</v>
+        <v>1.037773244704885</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9966653957133615</v>
+        <v>1.031914411538146</v>
       </c>
       <c r="D6">
-        <v>1.013902203143805</v>
+        <v>1.034258254846368</v>
       </c>
       <c r="E6">
-        <v>1.002694172985661</v>
+        <v>1.031354518795202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039383977843169</v>
+        <v>1.030787941279796</v>
       </c>
       <c r="J6">
-        <v>1.01562035465435</v>
+        <v>1.036351951050152</v>
       </c>
       <c r="K6">
-        <v>1.023578205981988</v>
+        <v>1.036686037541243</v>
       </c>
       <c r="L6">
-        <v>1.01249883330915</v>
+        <v>1.033789505124613</v>
       </c>
       <c r="N6">
-        <v>1.017062652051242</v>
+        <v>1.037823689691874</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9944290754186064</v>
+        <v>1.031453965921846</v>
       </c>
       <c r="D7">
-        <v>1.012244918729338</v>
+        <v>1.033916423196602</v>
       </c>
       <c r="E7">
-        <v>1.000837882958409</v>
+        <v>1.030958305334133</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038834504984127</v>
+        <v>1.030702128823139</v>
       </c>
       <c r="J7">
-        <v>1.013970224276486</v>
+        <v>1.036005416504179</v>
       </c>
       <c r="K7">
-        <v>1.022194818416737</v>
+        <v>1.036404975874957</v>
       </c>
       <c r="L7">
-        <v>1.010923207910068</v>
+        <v>1.033454392365066</v>
       </c>
       <c r="N7">
-        <v>1.015410178298969</v>
+        <v>1.037476663027097</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9847898708671421</v>
+        <v>1.029526166075662</v>
       </c>
       <c r="D8">
-        <v>1.005105082997656</v>
+        <v>1.032484327548239</v>
       </c>
       <c r="E8">
-        <v>0.9928505550684195</v>
+        <v>1.02929994958345</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036437891541164</v>
+        <v>1.030339295478387</v>
       </c>
       <c r="J8">
-        <v>1.006848678858703</v>
+        <v>1.034553007080374</v>
       </c>
       <c r="K8">
-        <v>1.01621634390561</v>
+        <v>1.035225705636768</v>
       </c>
       <c r="L8">
-        <v>1.004128249035032</v>
+        <v>1.032050322059793</v>
       </c>
       <c r="N8">
-        <v>1.00827851946984</v>
+        <v>1.036022191015317</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9665582682076302</v>
+        <v>1.026116539187799</v>
       </c>
       <c r="D9">
-        <v>0.991624770596446</v>
+        <v>1.029948079159845</v>
       </c>
       <c r="E9">
-        <v>0.9778049744291476</v>
+        <v>1.026368886204631</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031800485120001</v>
+        <v>1.029684187883562</v>
       </c>
       <c r="J9">
-        <v>0.9933498397308743</v>
+        <v>1.031978434011029</v>
       </c>
       <c r="K9">
-        <v>1.004855207473881</v>
+        <v>1.033130526297976</v>
       </c>
       <c r="L9">
-        <v>0.9912687162353891</v>
+        <v>1.029563205358117</v>
       </c>
       <c r="N9">
-        <v>0.9947605104421116</v>
+        <v>1.033443961756906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9534046829918051</v>
+        <v>1.023834523652523</v>
       </c>
       <c r="D10">
-        <v>0.9819265964948475</v>
+        <v>1.028248422099237</v>
       </c>
       <c r="E10">
-        <v>0.9670008448967762</v>
+        <v>1.02440857245048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028388965519696</v>
+        <v>1.029236764775878</v>
       </c>
       <c r="J10">
-        <v>0.9835972472528827</v>
+        <v>1.03025147569781</v>
       </c>
       <c r="K10">
-        <v>0.9966300236439213</v>
+        <v>1.031721946703666</v>
       </c>
       <c r="L10">
-        <v>0.9819926146312297</v>
+        <v>1.027896103553927</v>
       </c>
       <c r="N10">
-        <v>0.9849940681641631</v>
+        <v>1.031714550964797</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9474292120647932</v>
+        <v>1.022844164068746</v>
       </c>
       <c r="D11">
-        <v>0.9775302723075008</v>
+        <v>1.027510296056301</v>
       </c>
       <c r="E11">
-        <v>0.9621070600487234</v>
+        <v>1.023558171951071</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026824928611602</v>
+        <v>1.029040469508607</v>
       </c>
       <c r="J11">
-        <v>0.9791652064908688</v>
+        <v>1.029501101268163</v>
       </c>
       <c r="K11">
-        <v>0.9928887505910193</v>
+        <v>1.031109160350854</v>
       </c>
       <c r="L11">
-        <v>0.9777807991168124</v>
+        <v>1.027172020668955</v>
       </c>
       <c r="N11">
-        <v>0.9805557333959047</v>
+        <v>1.030963110917391</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9451633319399613</v>
+        <v>1.022475956125085</v>
       </c>
       <c r="D12">
-        <v>0.9758648912991356</v>
+        <v>1.027235792658514</v>
       </c>
       <c r="E12">
-        <v>0.9602537330238612</v>
+        <v>1.023242052613344</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026229844473158</v>
+        <v>1.028967170427715</v>
       </c>
       <c r="J12">
-        <v>0.9774845102777981</v>
+        <v>1.029221983199112</v>
       </c>
       <c r="K12">
-        <v>0.9914695644109416</v>
+        <v>1.030881109063103</v>
       </c>
       <c r="L12">
-        <v>0.9761841908874377</v>
+        <v>1.026902724955423</v>
       </c>
       <c r="N12">
-        <v>0.978872650401433</v>
+        <v>1.030683596468667</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9456515425293626</v>
+        <v>1.022554953704357</v>
       </c>
       <c r="D13">
-        <v>0.9762236361440533</v>
+        <v>1.027294689614867</v>
       </c>
       <c r="E13">
-        <v>0.9606529428851862</v>
+        <v>1.023309872374868</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026358150606341</v>
+        <v>1.028982910840851</v>
       </c>
       <c r="J13">
-        <v>0.9778466369598069</v>
+        <v>1.029281872978336</v>
       </c>
       <c r="K13">
-        <v>0.9917753642463355</v>
+        <v>1.030930046613285</v>
       </c>
       <c r="L13">
-        <v>0.9765281734423785</v>
+        <v>1.026960505242221</v>
       </c>
       <c r="N13">
-        <v>0.9792352913448665</v>
+        <v>1.030743571298246</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9472428856072109</v>
+        <v>1.022813734961144</v>
       </c>
       <c r="D14">
-        <v>0.9773932897298788</v>
+        <v>1.027487612294362</v>
       </c>
       <c r="E14">
-        <v>0.9619546087725327</v>
+        <v>1.023532046417946</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026776033863701</v>
+        <v>1.029034418475041</v>
       </c>
       <c r="J14">
-        <v>0.9790270011600826</v>
+        <v>1.02947803738913</v>
       </c>
       <c r="K14">
-        <v>0.9927720579982805</v>
+        <v>1.031090318467228</v>
       </c>
       <c r="L14">
-        <v>0.9776494966315563</v>
+        <v>1.027149767553738</v>
       </c>
       <c r="N14">
-        <v>0.9804173317976964</v>
+        <v>1.030940014285004</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9482170879567628</v>
+        <v>1.02297313274105</v>
       </c>
       <c r="D15">
-        <v>0.9781095694967908</v>
+        <v>1.027606434361677</v>
       </c>
       <c r="E15">
-        <v>0.9627517938306983</v>
+        <v>1.023668902816389</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027031597953945</v>
+        <v>1.029066102784046</v>
       </c>
       <c r="J15">
-        <v>0.9797496013667294</v>
+        <v>1.02959884814226</v>
       </c>
       <c r="K15">
-        <v>0.9933821624044669</v>
+        <v>1.031189009429178</v>
       </c>
       <c r="L15">
-        <v>0.978336029126325</v>
+        <v>1.027266333195938</v>
       </c>
       <c r="N15">
-        <v>0.9811409581795203</v>
+        <v>1.03106099660326</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9537950071569089</v>
+        <v>1.023900202768807</v>
       </c>
       <c r="D16">
-        <v>0.9822139860578205</v>
+        <v>1.028297363046313</v>
       </c>
       <c r="E16">
-        <v>0.9673208270318067</v>
+        <v>1.024464977055054</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028490846766875</v>
+        <v>1.029249738183741</v>
       </c>
       <c r="J16">
-        <v>0.9838867329632363</v>
+        <v>1.030301220456818</v>
       </c>
       <c r="K16">
-        <v>0.9968743266970366</v>
+        <v>1.031762554575832</v>
       </c>
       <c r="L16">
-        <v>0.982267793857997</v>
+        <v>1.02794411133041</v>
       </c>
       <c r="N16">
-        <v>0.9852839649774298</v>
+        <v>1.031764366367069</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9572161212426736</v>
+        <v>1.024481125460074</v>
       </c>
       <c r="D17">
-        <v>0.9847339879419758</v>
+        <v>1.028730181302901</v>
       </c>
       <c r="E17">
-        <v>0.9701270484628788</v>
+        <v>1.024963907962537</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029382227296067</v>
+        <v>1.029364241568274</v>
       </c>
       <c r="J17">
-        <v>0.9864238561716253</v>
+        <v>1.030741102067856</v>
       </c>
       <c r="K17">
-        <v>0.9990150870670462</v>
+        <v>1.032121554405474</v>
       </c>
       <c r="L17">
-        <v>0.9846799487083213</v>
+        <v>1.028368665898162</v>
       </c>
       <c r="N17">
-        <v>0.9878246911917866</v>
+        <v>1.032204872660449</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9591849132571539</v>
+        <v>1.024819753113315</v>
       </c>
       <c r="D18">
-        <v>0.9861850676715553</v>
+        <v>1.028982428515723</v>
       </c>
       <c r="E18">
-        <v>0.9717433111224494</v>
+        <v>1.025254774721903</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029893857755277</v>
+        <v>1.029430782768026</v>
       </c>
       <c r="J18">
-        <v>0.9878837666960122</v>
+        <v>1.030997428104095</v>
       </c>
       <c r="K18">
-        <v>1.000246603278545</v>
+        <v>1.032330677133191</v>
       </c>
       <c r="L18">
-        <v>0.9860682938062271</v>
+        <v>1.028616087916753</v>
       </c>
       <c r="N18">
-        <v>0.9892866749565723</v>
+        <v>1.032461562709061</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9598518143086803</v>
+        <v>1.024935180241989</v>
       </c>
       <c r="D19">
-        <v>0.9866767394148399</v>
+        <v>1.02906840312172</v>
       </c>
       <c r="E19">
-        <v>0.9722910173247137</v>
+        <v>1.025353927322819</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030066933881697</v>
+        <v>1.029453429813726</v>
       </c>
       <c r="J19">
-        <v>0.9883782596605307</v>
+        <v>1.031084786539189</v>
       </c>
       <c r="K19">
-        <v>1.000663679771904</v>
+        <v>1.032401935953746</v>
       </c>
       <c r="L19">
-        <v>0.9865386042531146</v>
+        <v>1.028700416403255</v>
       </c>
       <c r="N19">
-        <v>0.9897818701578198</v>
+        <v>1.032549045203152</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9568518573184633</v>
+        <v>1.024418820228211</v>
       </c>
       <c r="D20">
-        <v>0.9844655786448092</v>
+        <v>1.028683765591045</v>
       </c>
       <c r="E20">
-        <v>0.9698281155332227</v>
+        <v>1.024910393084926</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029287456151173</v>
+        <v>1.029351981968938</v>
       </c>
       <c r="J20">
-        <v>0.9861537309612425</v>
+        <v>1.030693932784218</v>
       </c>
       <c r="K20">
-        <v>0.998787195014571</v>
+        <v>1.03208306568587</v>
       </c>
       <c r="L20">
-        <v>0.9844230928742281</v>
+        <v>1.028323137335802</v>
       </c>
       <c r="N20">
-        <v>0.9875541823726215</v>
+        <v>1.032157636391017</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9467755909099653</v>
+        <v>1.022737539907905</v>
       </c>
       <c r="D21">
-        <v>0.9770497744798694</v>
+        <v>1.027430810542181</v>
       </c>
       <c r="E21">
-        <v>0.9615723099125632</v>
+        <v>1.023466628453551</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026653377232951</v>
+        <v>1.029019261439518</v>
       </c>
       <c r="J21">
-        <v>0.9786803904207529</v>
+        <v>1.029420282831989</v>
       </c>
       <c r="K21">
-        <v>0.9924793930961281</v>
+        <v>1.031043134454876</v>
       </c>
       <c r="L21">
-        <v>0.9773202071425798</v>
+        <v>1.027094043929562</v>
       </c>
       <c r="N21">
-        <v>0.9800702288313601</v>
+        <v>1.030882177709767</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9401696361396292</v>
+        <v>1.021678455727081</v>
       </c>
       <c r="D22">
-        <v>0.9721980766084527</v>
+        <v>1.026641112918962</v>
       </c>
       <c r="E22">
-        <v>0.9561739177888858</v>
+        <v>1.022557468667462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024914814283356</v>
+        <v>1.028807830967081</v>
       </c>
       <c r="J22">
-        <v>0.9737805266417231</v>
+        <v>1.028617196519454</v>
       </c>
       <c r="K22">
-        <v>0.988341173818007</v>
+        <v>1.030386768171456</v>
       </c>
       <c r="L22">
-        <v>0.9726666127377054</v>
+        <v>1.026319299220231</v>
       </c>
       <c r="N22">
-        <v>0.9751634066837418</v>
+        <v>1.030077950922553</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9436988223907419</v>
+        <v>1.022240088557905</v>
       </c>
       <c r="D23">
-        <v>0.974789017831305</v>
+        <v>1.027059929946879</v>
       </c>
       <c r="E23">
-        <v>0.9590565711719089</v>
+        <v>1.02303956711845</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02584467510366</v>
+        <v>1.028920126852059</v>
       </c>
       <c r="J23">
-        <v>0.9763982224459544</v>
+        <v>1.029043147199596</v>
       </c>
       <c r="K23">
-        <v>0.9905521837627657</v>
+        <v>1.030734960980156</v>
       </c>
       <c r="L23">
-        <v>0.9751524169979988</v>
+        <v>1.026730194329263</v>
       </c>
       <c r="N23">
-        <v>0.9777848199162693</v>
+        <v>1.030504506501519</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9570165346575513</v>
+        <v>1.024446973944305</v>
       </c>
       <c r="D24">
-        <v>0.9845869191269105</v>
+        <v>1.02870473949737</v>
       </c>
       <c r="E24">
-        <v>0.969963253754706</v>
+        <v>1.024934574622061</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029330304711046</v>
+        <v>1.029357522316518</v>
       </c>
       <c r="J24">
-        <v>0.986275850345794</v>
+        <v>1.030715247324177</v>
       </c>
       <c r="K24">
-        <v>0.9988902224460023</v>
+        <v>1.032100457933955</v>
       </c>
       <c r="L24">
-        <v>0.9845392123141913</v>
+        <v>1.02834371039324</v>
       </c>
       <c r="N24">
-        <v>0.9876764751807061</v>
+        <v>1.032178981200069</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9714346657080409</v>
+        <v>1.026999549576349</v>
       </c>
       <c r="D25">
-        <v>0.9952265271161663</v>
+        <v>1.030605295096803</v>
       </c>
       <c r="E25">
-        <v>0.9818212555854285</v>
+        <v>1.027127716964246</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033052421026028</v>
+        <v>1.029855425047492</v>
       </c>
       <c r="J25">
-        <v>0.9969631498395186</v>
+        <v>1.032645862757888</v>
       </c>
       <c r="K25">
-        <v>1.0078993998438</v>
+        <v>1.03367423985535</v>
       </c>
       <c r="L25">
-        <v>0.9947084843665837</v>
+        <v>1.030207752532584</v>
       </c>
       <c r="N25">
-        <v>0.9983789518655622</v>
+        <v>1.034112338329141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02902903341425</v>
+        <v>0.9822290658394635</v>
       </c>
       <c r="D2">
-        <v>1.032114794810221</v>
+        <v>1.003209498202616</v>
       </c>
       <c r="E2">
-        <v>1.02887243402806</v>
+        <v>0.9907323749706979</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030244821884919</v>
+        <v>1.035794149501813</v>
       </c>
       <c r="J2">
-        <v>1.034178074952713</v>
+        <v>1.004954613038727</v>
       </c>
       <c r="K2">
-        <v>1.034920958377131</v>
+        <v>1.014624299981517</v>
       </c>
       <c r="L2">
-        <v>1.031687988137549</v>
+        <v>1.002322350528717</v>
       </c>
       <c r="N2">
-        <v>1.035646726441037</v>
+        <v>1.006381763859148</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030499042817314</v>
+        <v>0.989711091739551</v>
       </c>
       <c r="D3">
-        <v>1.033207224475991</v>
+        <v>1.008749456568469</v>
       </c>
       <c r="E3">
-        <v>1.030136745897304</v>
+        <v>0.9969256172822962</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030523109921155</v>
+        <v>1.037666944028384</v>
       </c>
       <c r="J3">
-        <v>1.035286280431448</v>
+        <v>1.010486227505508</v>
       </c>
       <c r="K3">
-        <v>1.03582133351086</v>
+        <v>1.01927159724881</v>
       </c>
       <c r="L3">
-        <v>1.032759097327895</v>
+        <v>1.007597987139906</v>
       </c>
       <c r="N3">
-        <v>1.036756505698657</v>
+        <v>1.011921233852956</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03144863523407</v>
+        <v>0.9944030396730957</v>
       </c>
       <c r="D4">
-        <v>1.033912465228322</v>
+        <v>1.01222562574446</v>
       </c>
       <c r="E4">
-        <v>1.030953718557134</v>
+        <v>1.0008162787311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030701133404464</v>
+        <v>1.038828092498419</v>
       </c>
       <c r="J4">
-        <v>1.036001403749696</v>
+        <v>1.013951008010425</v>
       </c>
       <c r="K4">
-        <v>1.036401720575996</v>
+        <v>1.022178703975398</v>
       </c>
       <c r="L4">
-        <v>1.03345051212698</v>
+        <v>1.01090486196156</v>
       </c>
       <c r="N4">
-        <v>1.037472644574042</v>
+        <v>1.015390934743606</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031847467667991</v>
+        <v>0.9963417932633437</v>
       </c>
       <c r="D5">
-        <v>1.034208561536003</v>
+        <v>1.01366237400916</v>
       </c>
       <c r="E5">
-        <v>1.031296910621233</v>
+        <v>1.002425487253216</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030775485798795</v>
+        <v>1.039304631205474</v>
       </c>
       <c r="J5">
-        <v>1.036301577599242</v>
+        <v>1.015381630034096</v>
       </c>
       <c r="K5">
-        <v>1.036645188890909</v>
+        <v>1.02337811878209</v>
       </c>
       <c r="L5">
-        <v>1.033740789260599</v>
+        <v>1.012270858921056</v>
       </c>
       <c r="N5">
-        <v>1.037773244704885</v>
+        <v>1.016823588414645</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031914411538146</v>
+        <v>0.996665395713363</v>
       </c>
       <c r="D6">
-        <v>1.034258254846368</v>
+        <v>1.013902203143806</v>
       </c>
       <c r="E6">
-        <v>1.031354518795202</v>
+        <v>1.002694172985662</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030787941279796</v>
+        <v>1.039383977843169</v>
       </c>
       <c r="J6">
-        <v>1.036351951050152</v>
+        <v>1.015620354654351</v>
       </c>
       <c r="K6">
-        <v>1.036686037541243</v>
+        <v>1.023578205981989</v>
       </c>
       <c r="L6">
-        <v>1.033789505124613</v>
+        <v>1.012498833309151</v>
       </c>
       <c r="N6">
-        <v>1.037823689691874</v>
+        <v>1.017062652051244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031453965921846</v>
+        <v>0.994429075418605</v>
       </c>
       <c r="D7">
-        <v>1.033916423196602</v>
+        <v>1.012244918729338</v>
       </c>
       <c r="E7">
-        <v>1.030958305334133</v>
+        <v>1.000837882958408</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030702128823139</v>
+        <v>1.038834504984127</v>
       </c>
       <c r="J7">
-        <v>1.036005416504179</v>
+        <v>1.013970224276485</v>
       </c>
       <c r="K7">
-        <v>1.036404975874957</v>
+        <v>1.022194818416736</v>
       </c>
       <c r="L7">
-        <v>1.033454392365066</v>
+        <v>1.010923207910067</v>
       </c>
       <c r="N7">
-        <v>1.037476663027097</v>
+        <v>1.015410178298968</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029526166075662</v>
+        <v>0.9847898708671423</v>
       </c>
       <c r="D8">
-        <v>1.032484327548239</v>
+        <v>1.005105082997656</v>
       </c>
       <c r="E8">
-        <v>1.02929994958345</v>
+        <v>0.9928505550684192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030339295478387</v>
+        <v>1.036437891541164</v>
       </c>
       <c r="J8">
-        <v>1.034553007080374</v>
+        <v>1.006848678858703</v>
       </c>
       <c r="K8">
-        <v>1.035225705636768</v>
+        <v>1.01621634390561</v>
       </c>
       <c r="L8">
-        <v>1.032050322059793</v>
+        <v>1.004128249035032</v>
       </c>
       <c r="N8">
-        <v>1.036022191015317</v>
+        <v>1.00827851946984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026116539187799</v>
+        <v>0.9665582682076297</v>
       </c>
       <c r="D9">
-        <v>1.029948079159845</v>
+        <v>0.9916247705964454</v>
       </c>
       <c r="E9">
-        <v>1.026368886204631</v>
+        <v>0.9778049744291467</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029684187883562</v>
+        <v>1.031800485120001</v>
       </c>
       <c r="J9">
-        <v>1.031978434011029</v>
+        <v>0.9933498397308734</v>
       </c>
       <c r="K9">
-        <v>1.033130526297976</v>
+        <v>1.00485520747388</v>
       </c>
       <c r="L9">
-        <v>1.029563205358117</v>
+        <v>0.9912687162353885</v>
       </c>
       <c r="N9">
-        <v>1.033443961756906</v>
+        <v>0.9947605104421106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023834523652523</v>
+        <v>0.953404682991804</v>
       </c>
       <c r="D10">
-        <v>1.028248422099237</v>
+        <v>0.9819265964948463</v>
       </c>
       <c r="E10">
-        <v>1.02440857245048</v>
+        <v>0.9670008448967751</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029236764775878</v>
+        <v>1.028388965519695</v>
       </c>
       <c r="J10">
-        <v>1.03025147569781</v>
+        <v>0.9835972472528816</v>
       </c>
       <c r="K10">
-        <v>1.031721946703666</v>
+        <v>0.9966300236439202</v>
       </c>
       <c r="L10">
-        <v>1.027896103553927</v>
+        <v>0.9819926146312283</v>
       </c>
       <c r="N10">
-        <v>1.031714550964797</v>
+        <v>0.9849940681641618</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022844164068746</v>
+        <v>0.947429212064792</v>
       </c>
       <c r="D11">
-        <v>1.027510296056301</v>
+        <v>0.9775302723074998</v>
       </c>
       <c r="E11">
-        <v>1.023558171951071</v>
+        <v>0.9621070600487223</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029040469508607</v>
+        <v>1.026824928611601</v>
       </c>
       <c r="J11">
-        <v>1.029501101268163</v>
+        <v>0.9791652064908676</v>
       </c>
       <c r="K11">
-        <v>1.031109160350854</v>
+        <v>0.9928887505910183</v>
       </c>
       <c r="L11">
-        <v>1.027172020668955</v>
+        <v>0.9777807991168112</v>
       </c>
       <c r="N11">
-        <v>1.030963110917391</v>
+        <v>0.9805557333959034</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022475956125085</v>
+        <v>0.9451633319399613</v>
       </c>
       <c r="D12">
-        <v>1.027235792658514</v>
+        <v>0.9758648912991359</v>
       </c>
       <c r="E12">
-        <v>1.023242052613344</v>
+        <v>0.9602537330238614</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028967170427715</v>
+        <v>1.026229844473158</v>
       </c>
       <c r="J12">
-        <v>1.029221983199112</v>
+        <v>0.9774845102777981</v>
       </c>
       <c r="K12">
-        <v>1.030881109063103</v>
+        <v>0.9914695644109419</v>
       </c>
       <c r="L12">
-        <v>1.026902724955423</v>
+        <v>0.976184190887438</v>
       </c>
       <c r="N12">
-        <v>1.030683596468667</v>
+        <v>0.9788726504014331</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022554953704357</v>
+        <v>0.9456515425293616</v>
       </c>
       <c r="D13">
-        <v>1.027294689614867</v>
+        <v>0.9762236361440526</v>
       </c>
       <c r="E13">
-        <v>1.023309872374868</v>
+        <v>0.960652942885185</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028982910840851</v>
+        <v>1.026358150606341</v>
       </c>
       <c r="J13">
-        <v>1.029281872978336</v>
+        <v>0.9778466369598061</v>
       </c>
       <c r="K13">
-        <v>1.030930046613285</v>
+        <v>0.9917753642463345</v>
       </c>
       <c r="L13">
-        <v>1.026960505242221</v>
+        <v>0.9765281734423779</v>
       </c>
       <c r="N13">
-        <v>1.030743571298246</v>
+        <v>0.9792352913448661</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022813734961144</v>
+        <v>0.9472428856072117</v>
       </c>
       <c r="D14">
-        <v>1.027487612294362</v>
+        <v>0.9773932897298794</v>
       </c>
       <c r="E14">
-        <v>1.023532046417946</v>
+        <v>0.9619546087725331</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029034418475041</v>
+        <v>1.026776033863701</v>
       </c>
       <c r="J14">
-        <v>1.02947803738913</v>
+        <v>0.979027001160083</v>
       </c>
       <c r="K14">
-        <v>1.031090318467228</v>
+        <v>0.9927720579982812</v>
       </c>
       <c r="L14">
-        <v>1.027149767553738</v>
+        <v>0.9776494966315568</v>
       </c>
       <c r="N14">
-        <v>1.030940014285004</v>
+        <v>0.9804173317976972</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02297313274105</v>
+        <v>0.948217087956763</v>
       </c>
       <c r="D15">
-        <v>1.027606434361677</v>
+        <v>0.9781095694967912</v>
       </c>
       <c r="E15">
-        <v>1.023668902816389</v>
+        <v>0.9627517938306989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029066102784046</v>
+        <v>1.027031597953945</v>
       </c>
       <c r="J15">
-        <v>1.02959884814226</v>
+        <v>0.9797496013667297</v>
       </c>
       <c r="K15">
-        <v>1.031189009429178</v>
+        <v>0.9933821624044672</v>
       </c>
       <c r="L15">
-        <v>1.027266333195938</v>
+        <v>0.9783360291263253</v>
       </c>
       <c r="N15">
-        <v>1.03106099660326</v>
+        <v>0.9811409581795207</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023900202768807</v>
+        <v>0.9537950071569095</v>
       </c>
       <c r="D16">
-        <v>1.028297363046313</v>
+        <v>0.9822139860578208</v>
       </c>
       <c r="E16">
-        <v>1.024464977055054</v>
+        <v>0.9673208270318066</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029249738183741</v>
+        <v>1.028490846766875</v>
       </c>
       <c r="J16">
-        <v>1.030301220456818</v>
+        <v>0.9838867329632367</v>
       </c>
       <c r="K16">
-        <v>1.031762554575832</v>
+        <v>0.9968743266970369</v>
       </c>
       <c r="L16">
-        <v>1.02794411133041</v>
+        <v>0.982267793857997</v>
       </c>
       <c r="N16">
-        <v>1.031764366367069</v>
+        <v>0.9852839649774303</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024481125460074</v>
+        <v>0.9572161212426746</v>
       </c>
       <c r="D17">
-        <v>1.028730181302901</v>
+        <v>0.9847339879419769</v>
       </c>
       <c r="E17">
-        <v>1.024963907962537</v>
+        <v>0.9701270484628796</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029364241568274</v>
+        <v>1.029382227296068</v>
       </c>
       <c r="J17">
-        <v>1.030741102067856</v>
+        <v>0.9864238561716262</v>
       </c>
       <c r="K17">
-        <v>1.032121554405474</v>
+        <v>0.9990150870670472</v>
       </c>
       <c r="L17">
-        <v>1.028368665898162</v>
+        <v>0.9846799487083222</v>
       </c>
       <c r="N17">
-        <v>1.032204872660449</v>
+        <v>0.9878246911917878</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024819753113315</v>
+        <v>0.9591849132571538</v>
       </c>
       <c r="D18">
-        <v>1.028982428515723</v>
+        <v>0.986185067671555</v>
       </c>
       <c r="E18">
-        <v>1.025254774721903</v>
+        <v>0.9717433111224493</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029430782768026</v>
+        <v>1.029893857755277</v>
       </c>
       <c r="J18">
-        <v>1.030997428104095</v>
+        <v>0.9878837666960121</v>
       </c>
       <c r="K18">
-        <v>1.032330677133191</v>
+        <v>1.000246603278545</v>
       </c>
       <c r="L18">
-        <v>1.028616087916753</v>
+        <v>0.9860682938062271</v>
       </c>
       <c r="N18">
-        <v>1.032461562709061</v>
+        <v>0.9892866749565723</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024935180241989</v>
+        <v>0.9598518143086776</v>
       </c>
       <c r="D19">
-        <v>1.02906840312172</v>
+        <v>0.9866767394148374</v>
       </c>
       <c r="E19">
-        <v>1.025353927322819</v>
+        <v>0.9722910173247118</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029453429813726</v>
+        <v>1.030066933881696</v>
       </c>
       <c r="J19">
-        <v>1.031084786539189</v>
+        <v>0.9883782596605284</v>
       </c>
       <c r="K19">
-        <v>1.032401935953746</v>
+        <v>1.000663679771901</v>
       </c>
       <c r="L19">
-        <v>1.028700416403255</v>
+        <v>0.9865386042531126</v>
       </c>
       <c r="N19">
-        <v>1.032549045203152</v>
+        <v>0.9897818701578172</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024418820228211</v>
+        <v>0.9568518573184649</v>
       </c>
       <c r="D20">
-        <v>1.028683765591045</v>
+        <v>0.9844655786448108</v>
       </c>
       <c r="E20">
-        <v>1.024910393084926</v>
+        <v>0.9698281155332239</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029351981968938</v>
+        <v>1.029287456151174</v>
       </c>
       <c r="J20">
-        <v>1.030693932784218</v>
+        <v>0.986153730961244</v>
       </c>
       <c r="K20">
-        <v>1.03208306568587</v>
+        <v>0.9987871950145724</v>
       </c>
       <c r="L20">
-        <v>1.028323137335802</v>
+        <v>0.9844230928742295</v>
       </c>
       <c r="N20">
-        <v>1.032157636391017</v>
+        <v>0.987554182372623</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022737539907905</v>
+        <v>0.9467755909099664</v>
       </c>
       <c r="D21">
-        <v>1.027430810542181</v>
+        <v>0.9770497744798706</v>
       </c>
       <c r="E21">
-        <v>1.023466628453551</v>
+        <v>0.961572309912564</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029019261439518</v>
+        <v>1.026653377232951</v>
       </c>
       <c r="J21">
-        <v>1.029420282831989</v>
+        <v>0.9786803904207539</v>
       </c>
       <c r="K21">
-        <v>1.031043134454876</v>
+        <v>0.992479393096129</v>
       </c>
       <c r="L21">
-        <v>1.027094043929562</v>
+        <v>0.9773202071425808</v>
       </c>
       <c r="N21">
-        <v>1.030882177709767</v>
+        <v>0.9800702288313612</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021678455727081</v>
+        <v>0.9401696361396277</v>
       </c>
       <c r="D22">
-        <v>1.026641112918962</v>
+        <v>0.9721980766084515</v>
       </c>
       <c r="E22">
-        <v>1.022557468667462</v>
+        <v>0.9561739177888841</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028807830967081</v>
+        <v>1.024914814283356</v>
       </c>
       <c r="J22">
-        <v>1.028617196519454</v>
+        <v>0.9737805266417215</v>
       </c>
       <c r="K22">
-        <v>1.030386768171456</v>
+        <v>0.9883411738180057</v>
       </c>
       <c r="L22">
-        <v>1.026319299220231</v>
+        <v>0.9726666127377036</v>
       </c>
       <c r="N22">
-        <v>1.030077950922553</v>
+        <v>0.9751634066837404</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022240088557905</v>
+        <v>0.9436988223907398</v>
       </c>
       <c r="D23">
-        <v>1.027059929946879</v>
+        <v>0.974789017831303</v>
       </c>
       <c r="E23">
-        <v>1.02303956711845</v>
+        <v>0.9590565711719072</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028920126852059</v>
+        <v>1.025844675103659</v>
       </c>
       <c r="J23">
-        <v>1.029043147199596</v>
+        <v>0.9763982224459523</v>
       </c>
       <c r="K23">
-        <v>1.030734960980156</v>
+        <v>0.9905521837627638</v>
       </c>
       <c r="L23">
-        <v>1.026730194329263</v>
+        <v>0.975152416997997</v>
       </c>
       <c r="N23">
-        <v>1.030504506501519</v>
+        <v>0.9777848199162672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024446973944305</v>
+        <v>0.9570165346575513</v>
       </c>
       <c r="D24">
-        <v>1.02870473949737</v>
+        <v>0.9845869191269102</v>
       </c>
       <c r="E24">
-        <v>1.024934574622061</v>
+        <v>0.9699632537547063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029357522316518</v>
+        <v>1.029330304711047</v>
       </c>
       <c r="J24">
-        <v>1.030715247324177</v>
+        <v>0.9862758503457941</v>
       </c>
       <c r="K24">
-        <v>1.032100457933955</v>
+        <v>0.9988902224460022</v>
       </c>
       <c r="L24">
-        <v>1.02834371039324</v>
+        <v>0.9845392123141914</v>
       </c>
       <c r="N24">
-        <v>1.032178981200069</v>
+        <v>0.9876764751807062</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026999549576349</v>
+        <v>0.9714346657080408</v>
       </c>
       <c r="D25">
-        <v>1.030605295096803</v>
+        <v>0.9952265271161664</v>
       </c>
       <c r="E25">
-        <v>1.027127716964246</v>
+        <v>0.9818212555854283</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029855425047492</v>
+        <v>1.033052421026028</v>
       </c>
       <c r="J25">
-        <v>1.032645862757888</v>
+        <v>0.9969631498395186</v>
       </c>
       <c r="K25">
-        <v>1.03367423985535</v>
+        <v>1.0078993998438</v>
       </c>
       <c r="L25">
-        <v>1.030207752532584</v>
+        <v>0.9947084843665835</v>
       </c>
       <c r="N25">
-        <v>1.034112338329141</v>
+        <v>0.9983789518655624</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9822290658394635</v>
+        <v>1.008591191802227</v>
       </c>
       <c r="D2">
-        <v>1.003209498202616</v>
+        <v>1.025643927627867</v>
       </c>
       <c r="E2">
-        <v>0.9907323749706979</v>
+        <v>1.013872402072043</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035794149501813</v>
+        <v>1.045110725775452</v>
       </c>
       <c r="J2">
-        <v>1.004954613038727</v>
+        <v>1.030517943421037</v>
       </c>
       <c r="K2">
-        <v>1.014624299981517</v>
+        <v>1.036757198219621</v>
       </c>
       <c r="L2">
-        <v>1.002322350528717</v>
+        <v>1.025141797013598</v>
       </c>
       <c r="N2">
-        <v>1.006381763859148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01402906171538</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037060783430662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.989711091739551</v>
+        <v>1.012339862095559</v>
       </c>
       <c r="D3">
-        <v>1.008749456568469</v>
+        <v>1.028083341914684</v>
       </c>
       <c r="E3">
-        <v>0.9969256172822962</v>
+        <v>1.016818252434541</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037666944028384</v>
+        <v>1.045977146644422</v>
       </c>
       <c r="J3">
-        <v>1.010486227505508</v>
+        <v>1.032499690700179</v>
       </c>
       <c r="K3">
-        <v>1.01927159724881</v>
+        <v>1.038369071177348</v>
       </c>
       <c r="L3">
-        <v>1.007597987139906</v>
+        <v>1.027240369683492</v>
       </c>
       <c r="N3">
-        <v>1.011921233852956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014695876559763</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038197852185802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9944030396730957</v>
+        <v>1.01472323791886</v>
       </c>
       <c r="D4">
-        <v>1.01222562574446</v>
+        <v>1.029638518031746</v>
       </c>
       <c r="E4">
-        <v>1.0008162787311</v>
+        <v>1.018696993649928</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038828092498419</v>
+        <v>1.046520460148004</v>
       </c>
       <c r="J4">
-        <v>1.013951008010425</v>
+        <v>1.033757675609837</v>
       </c>
       <c r="K4">
-        <v>1.022178703975398</v>
+        <v>1.039391922717625</v>
       </c>
       <c r="L4">
-        <v>1.01090486196156</v>
+        <v>1.0285748803818</v>
       </c>
       <c r="N4">
-        <v>1.015390934743606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015119201617302</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038921995611174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9963417932633437</v>
+        <v>1.01571914819366</v>
       </c>
       <c r="D5">
-        <v>1.01366237400916</v>
+        <v>1.030291578196664</v>
       </c>
       <c r="E5">
-        <v>1.002425487253216</v>
+        <v>1.019483831188823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039304631205474</v>
+        <v>1.046747287819272</v>
       </c>
       <c r="J5">
-        <v>1.015381630034096</v>
+        <v>1.034284514809878</v>
       </c>
       <c r="K5">
-        <v>1.02337811878209</v>
+        <v>1.03982186551616</v>
       </c>
       <c r="L5">
-        <v>1.012270858921056</v>
+        <v>1.029133804642324</v>
       </c>
       <c r="N5">
-        <v>1.016823588414645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015296869418441</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039233180131467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +597,40 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996665395713363</v>
+        <v>1.015890371744001</v>
       </c>
       <c r="D6">
-        <v>1.013902203143806</v>
+        <v>1.030406632822004</v>
       </c>
       <c r="E6">
-        <v>1.002694172985662</v>
+        <v>1.019619711167385</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039383977843169</v>
+        <v>1.0467881749496</v>
       </c>
       <c r="J6">
-        <v>1.015620354654351</v>
+        <v>1.034377109107746</v>
       </c>
       <c r="K6">
-        <v>1.023578205981989</v>
+        <v>1.039899437339299</v>
       </c>
       <c r="L6">
-        <v>1.012498833309151</v>
+        <v>1.029231423721908</v>
       </c>
       <c r="N6">
-        <v>1.017062652051244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015328548350352</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039296783189307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +638,40 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.994429075418605</v>
+        <v>1.014748883943998</v>
       </c>
       <c r="D7">
-        <v>1.012244918729338</v>
+        <v>1.029662610778037</v>
       </c>
       <c r="E7">
-        <v>1.000837882958408</v>
+        <v>1.018718661523395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038834504984127</v>
+        <v>1.046531673093075</v>
       </c>
       <c r="J7">
-        <v>1.013970224276485</v>
+        <v>1.033776735462709</v>
       </c>
       <c r="K7">
-        <v>1.022194818416736</v>
+        <v>1.039412859103571</v>
       </c>
       <c r="L7">
-        <v>1.010923207910067</v>
+        <v>1.028593371045642</v>
       </c>
       <c r="N7">
-        <v>1.015410178298968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015126860318224</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038956933313069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9847898708671423</v>
+        <v>1.009882386258633</v>
       </c>
       <c r="D8">
-        <v>1.005105082997656</v>
+        <v>1.026492286741745</v>
       </c>
       <c r="E8">
-        <v>0.9928505550684192</v>
+        <v>1.014887690311148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036437891541164</v>
+        <v>1.045417336697954</v>
       </c>
       <c r="J8">
-        <v>1.006848678858703</v>
+        <v>1.031207754287774</v>
       </c>
       <c r="K8">
-        <v>1.01621634390561</v>
+        <v>1.037324973203444</v>
       </c>
       <c r="L8">
-        <v>1.004128249035032</v>
+        <v>1.025869705000281</v>
       </c>
       <c r="N8">
-        <v>1.00827851946984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014262769161842</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037485195618533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9665582682076297</v>
+        <v>1.000949397924143</v>
       </c>
       <c r="D9">
-        <v>0.9916247705964454</v>
+        <v>1.020696334293832</v>
       </c>
       <c r="E9">
-        <v>0.9778049744291467</v>
+        <v>1.007900555401592</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031800485120001</v>
+        <v>1.043304809270909</v>
       </c>
       <c r="J9">
-        <v>0.9933498397308734</v>
+        <v>1.026468674990566</v>
       </c>
       <c r="K9">
-        <v>1.00485520747388</v>
+        <v>1.033462320716924</v>
       </c>
       <c r="L9">
-        <v>0.9912687162353885</v>
+        <v>1.020866739022998</v>
       </c>
       <c r="N9">
-        <v>0.9947605104421106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012667058185444</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034750849583155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.953404682991804</v>
+        <v>0.9947502158681975</v>
       </c>
       <c r="D10">
-        <v>0.9819265964948463</v>
+        <v>1.016703104032519</v>
       </c>
       <c r="E10">
-        <v>0.9670008448967751</v>
+        <v>1.00308670380168</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028388965519695</v>
+        <v>1.041803007818932</v>
       </c>
       <c r="J10">
-        <v>0.9835972472528816</v>
+        <v>1.023173681169539</v>
       </c>
       <c r="K10">
-        <v>0.9966300236439202</v>
+        <v>1.030777188500084</v>
       </c>
       <c r="L10">
-        <v>0.9819926146312283</v>
+        <v>1.017400449611815</v>
       </c>
       <c r="N10">
-        <v>0.9849940681641618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011558545786685</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032869144123848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.947429212064792</v>
+        <v>0.9920180076736529</v>
       </c>
       <c r="D11">
-        <v>0.9775302723074998</v>
+        <v>1.014958879661044</v>
       </c>
       <c r="E11">
-        <v>0.9621070600487223</v>
+        <v>1.000975881143195</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026824928611601</v>
+        <v>1.041139085588171</v>
       </c>
       <c r="J11">
-        <v>0.9791652064908676</v>
+        <v>1.021726658664112</v>
       </c>
       <c r="K11">
-        <v>0.9928887505910183</v>
+        <v>1.029604101553676</v>
       </c>
       <c r="L11">
-        <v>0.9777807991168112</v>
+        <v>1.015879417211409</v>
       </c>
       <c r="N11">
-        <v>0.9805557333959034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011073743481434</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032072677798433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9451633319399613</v>
+        <v>0.9909844439700956</v>
       </c>
       <c r="D12">
-        <v>0.9758648912991359</v>
+        <v>1.014295177030791</v>
       </c>
       <c r="E12">
-        <v>0.9602537330238614</v>
+        <v>1.000177551105655</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026229844473158</v>
+        <v>1.040883116474935</v>
       </c>
       <c r="J12">
-        <v>0.9774845102777981</v>
+        <v>1.021175320723011</v>
       </c>
       <c r="K12">
-        <v>0.9914695644109419</v>
+        <v>1.029153534642675</v>
       </c>
       <c r="L12">
-        <v>0.976184190887438</v>
+        <v>1.01530135030692</v>
       </c>
       <c r="N12">
-        <v>0.9788726504014331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01088803292454</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031754109997034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9456515425293616</v>
+        <v>0.9912048861073037</v>
       </c>
       <c r="D13">
-        <v>0.9762236361440526</v>
+        <v>1.014435716932579</v>
       </c>
       <c r="E13">
-        <v>0.960652942885185</v>
+        <v>1.00034752438746</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026358150606341</v>
+        <v>1.040937071009902</v>
       </c>
       <c r="J13">
-        <v>0.9778466369598061</v>
+        <v>1.021292190600295</v>
       </c>
       <c r="K13">
-        <v>0.9917753642463345</v>
+        <v>1.029248357001026</v>
       </c>
       <c r="L13">
-        <v>0.9765281734423779</v>
+        <v>1.015424057861813</v>
       </c>
       <c r="N13">
-        <v>0.9792352913448661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010927196968682</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031818649583828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9472428856072117</v>
+        <v>0.9919320457036847</v>
       </c>
       <c r="D14">
-        <v>0.9773932897298794</v>
+        <v>1.014903243331353</v>
       </c>
       <c r="E14">
-        <v>0.9619546087725331</v>
+        <v>1.000909355442004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026776033863701</v>
+        <v>1.041117524765881</v>
       </c>
       <c r="J14">
-        <v>0.979027001160083</v>
+        <v>1.021680495692317</v>
       </c>
       <c r="K14">
-        <v>0.9927720579982812</v>
+        <v>1.02956608240805</v>
       </c>
       <c r="L14">
-        <v>0.9776494966315568</v>
+        <v>1.015831089380194</v>
       </c>
       <c r="N14">
-        <v>0.9804173317976972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011058108191019</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032044724427635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.948217087956763</v>
+        <v>0.9923821400284701</v>
       </c>
       <c r="D15">
-        <v>0.9781095694967912</v>
+        <v>1.0151946990168</v>
       </c>
       <c r="E15">
-        <v>0.9627517938306989</v>
+        <v>1.001257761379624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027031597953945</v>
+        <v>1.041230437442736</v>
       </c>
       <c r="J15">
-        <v>0.9797496013667297</v>
+        <v>1.021922270882908</v>
       </c>
       <c r="K15">
-        <v>0.9933821624044672</v>
+        <v>1.029765275374412</v>
       </c>
       <c r="L15">
-        <v>0.9783360291263253</v>
+        <v>1.016084201146789</v>
       </c>
       <c r="N15">
-        <v>0.9811409581795207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011140017370293</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032191457710495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,69 +1007,81 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9537950071569095</v>
+        <v>0.9949595223166028</v>
       </c>
       <c r="D16">
-        <v>0.9822139860578208</v>
+        <v>1.016853635719988</v>
       </c>
       <c r="E16">
-        <v>0.9673208270318066</v>
+        <v>1.003252588374714</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028490846766875</v>
+        <v>1.041865729397768</v>
       </c>
       <c r="J16">
-        <v>0.9838867329632367</v>
+        <v>1.023297130318485</v>
       </c>
       <c r="K16">
-        <v>0.9968743266970369</v>
+        <v>1.03088931277769</v>
       </c>
       <c r="L16">
-        <v>0.982267793857997</v>
+        <v>1.017526857748388</v>
       </c>
       <c r="N16">
-        <v>0.9852839649774303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011603324515601</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032989377095589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9572161212426746</v>
+        <v>0.996558667673016</v>
       </c>
       <c r="D17">
-        <v>0.9847339879419769</v>
+        <v>1.017884736397795</v>
       </c>
       <c r="E17">
-        <v>0.9701270484628796</v>
+        <v>1.004492602653139</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029382227296068</v>
+        <v>1.042257629735032</v>
       </c>
       <c r="J17">
-        <v>0.9864238561716262</v>
+        <v>1.024149736584375</v>
       </c>
       <c r="K17">
-        <v>0.9990150870670472</v>
+        <v>1.031586283508638</v>
       </c>
       <c r="L17">
-        <v>0.9846799487083222</v>
+        <v>1.018422316154927</v>
       </c>
       <c r="N17">
-        <v>0.9878246911917878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011890658179181</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033484760800326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9591849132571538</v>
+        <v>0.9974762283036153</v>
       </c>
       <c r="D18">
-        <v>0.986185067671555</v>
+        <v>1.018471868596488</v>
       </c>
       <c r="E18">
-        <v>0.9717433111224493</v>
+        <v>1.005203720849043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029893857755277</v>
+        <v>1.042477979408807</v>
       </c>
       <c r="J18">
-        <v>0.9878837666960121</v>
+        <v>1.024634920922742</v>
       </c>
       <c r="K18">
-        <v>1.000246603278545</v>
+        <v>1.031979193225668</v>
       </c>
       <c r="L18">
-        <v>0.9860682938062271</v>
+        <v>1.018933231792823</v>
       </c>
       <c r="N18">
-        <v>0.9892866749565723</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012053152856611</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033750882987728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9598518143086776</v>
+        <v>0.9977950168783269</v>
       </c>
       <c r="D19">
-        <v>0.9866767394148374</v>
+        <v>1.01867995303658</v>
       </c>
       <c r="E19">
-        <v>0.9722910173247118</v>
+        <v>1.005451850718205</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030066933881696</v>
+        <v>1.04255727421637</v>
       </c>
       <c r="J19">
-        <v>0.9883782596605284</v>
+        <v>1.024806469339627</v>
       </c>
       <c r="K19">
-        <v>1.000663679771901</v>
+        <v>1.032120994858193</v>
       </c>
       <c r="L19">
-        <v>0.9865386042531126</v>
+        <v>1.019113094961934</v>
       </c>
       <c r="N19">
-        <v>0.9897818701578172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012111410312386</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03385755738793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1171,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9568518573184649</v>
+        <v>0.9963870373318409</v>
       </c>
       <c r="D20">
-        <v>0.9844655786448108</v>
+        <v>1.017773608283754</v>
       </c>
       <c r="E20">
-        <v>0.9698281155332239</v>
+        <v>1.004359337895115</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029287456151174</v>
+        <v>1.042215367597982</v>
       </c>
       <c r="J20">
-        <v>0.986153730961244</v>
+        <v>1.024057946593062</v>
       </c>
       <c r="K20">
-        <v>0.9987871950145724</v>
+        <v>1.031510967670569</v>
       </c>
       <c r="L20">
-        <v>0.9844230928742295</v>
+        <v>1.018325964282886</v>
       </c>
       <c r="N20">
-        <v>0.987554182372623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011859643851988</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033430169208523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1212,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9467755909099664</v>
+        <v>0.9917278809583525</v>
       </c>
       <c r="D21">
-        <v>0.9770497744798706</v>
+        <v>1.01477737610491</v>
       </c>
       <c r="E21">
-        <v>0.961572309912564</v>
+        <v>1.000752891772303</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026653377232951</v>
+        <v>1.041070794777734</v>
       </c>
       <c r="J21">
-        <v>0.9786803904207539</v>
+        <v>1.021575574156861</v>
       </c>
       <c r="K21">
-        <v>0.992479393096129</v>
+        <v>1.029484092519651</v>
       </c>
       <c r="L21">
-        <v>0.9773202071425808</v>
+        <v>1.015720014413652</v>
       </c>
       <c r="N21">
-        <v>0.9800702288313612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011023859860375</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032000323296824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9401696361396277</v>
+        <v>0.9887274380400574</v>
       </c>
       <c r="D22">
-        <v>0.9721980766084515</v>
+        <v>1.012847199914465</v>
       </c>
       <c r="E22">
-        <v>0.9561739177888841</v>
+        <v>0.9984366008395917</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024914814283356</v>
+        <v>1.040321399002242</v>
       </c>
       <c r="J22">
-        <v>0.9737805266417215</v>
+        <v>1.019970494208166</v>
       </c>
       <c r="K22">
-        <v>0.9883411738180057</v>
+        <v>1.028168376359722</v>
       </c>
       <c r="L22">
-        <v>0.9726666127377036</v>
+        <v>1.014039092724633</v>
       </c>
       <c r="N22">
-        <v>0.9751634066837404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010482095395822</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031056491188808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9436988223907398</v>
+        <v>0.9903121734534439</v>
       </c>
       <c r="D23">
-        <v>0.974789017831303</v>
+        <v>1.01385956159752</v>
       </c>
       <c r="E23">
-        <v>0.9590565711719072</v>
+        <v>0.9996576412174607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025844675103659</v>
+        <v>1.040713231390604</v>
       </c>
       <c r="J23">
-        <v>0.9763982224459523</v>
+        <v>1.020813458733701</v>
       </c>
       <c r="K23">
-        <v>0.9905521837627638</v>
+        <v>1.028854796665376</v>
       </c>
       <c r="L23">
-        <v>0.975152416997997</v>
+        <v>1.01492291452666</v>
       </c>
       <c r="N23">
-        <v>0.9777848199162672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010765266199795</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031532149465941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1335,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9570165346575513</v>
+        <v>0.9964456367919302</v>
       </c>
       <c r="D24">
-        <v>0.9845869191269102</v>
+        <v>1.01780082825819</v>
       </c>
       <c r="E24">
-        <v>0.9699632537547063</v>
+        <v>1.004402329115336</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029330304711047</v>
+        <v>1.042222063218555</v>
       </c>
       <c r="J24">
-        <v>0.9862758503457941</v>
+        <v>1.024081198882682</v>
       </c>
       <c r="K24">
-        <v>0.9988902224460022</v>
+        <v>1.031522390056274</v>
       </c>
       <c r="L24">
-        <v>0.9845392123141914</v>
+        <v>1.0183525734834</v>
       </c>
       <c r="N24">
-        <v>0.9876764751807062</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01186535765891</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033410750275817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1376,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9714346657080408</v>
+        <v>1.003320610181613</v>
       </c>
       <c r="D25">
-        <v>0.9952265271161664</v>
+        <v>1.022241775212494</v>
       </c>
       <c r="E25">
-        <v>0.9818212555854283</v>
+        <v>1.009751940698386</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033052421026028</v>
+        <v>1.043880489773405</v>
       </c>
       <c r="J25">
-        <v>0.9969631498395186</v>
+        <v>1.02773673699785</v>
       </c>
       <c r="K25">
-        <v>1.0078993998438</v>
+        <v>1.034504356145661</v>
       </c>
       <c r="L25">
-        <v>0.9947084843665835</v>
+        <v>1.022200733330702</v>
       </c>
       <c r="N25">
-        <v>0.9983789518655624</v>
+        <v>1.013096121406421</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035516293944198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,40 +439,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008591191802227</v>
+        <v>1.008256186059457</v>
       </c>
       <c r="D2">
-        <v>1.025643927627867</v>
+        <v>1.024917428074351</v>
       </c>
       <c r="E2">
-        <v>1.013872402072043</v>
+        <v>1.013591217240608</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045110725775452</v>
+        <v>1.044814413995723</v>
       </c>
       <c r="J2">
-        <v>1.030517943421037</v>
+        <v>1.030192729354796</v>
       </c>
       <c r="K2">
-        <v>1.036757198219621</v>
+        <v>1.036040204016219</v>
       </c>
       <c r="L2">
-        <v>1.025141797013598</v>
+        <v>1.024864397241231</v>
       </c>
       <c r="N2">
-        <v>1.01402906171538</v>
+        <v>1.015176266983657</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037060783430662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036562596534812</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021665969984028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,40 +489,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012339862095559</v>
+        <v>1.011824637408209</v>
       </c>
       <c r="D3">
-        <v>1.028083341914684</v>
+        <v>1.027147371923347</v>
       </c>
       <c r="E3">
-        <v>1.016818252434541</v>
+        <v>1.016379549691174</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045977146644422</v>
+        <v>1.045572795208973</v>
       </c>
       <c r="J3">
-        <v>1.032499690700179</v>
+        <v>1.031998060376858</v>
       </c>
       <c r="K3">
-        <v>1.038369071177348</v>
+        <v>1.03744429174299</v>
       </c>
       <c r="L3">
-        <v>1.027240369683492</v>
+        <v>1.026807054449843</v>
       </c>
       <c r="N3">
-        <v>1.014695876559763</v>
+        <v>1.015658418647774</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038197852185802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037552465352823</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021941176404431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -515,40 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01472323791886</v>
+        <v>1.014094641559669</v>
       </c>
       <c r="D4">
-        <v>1.029638518031746</v>
+        <v>1.028570124876239</v>
       </c>
       <c r="E4">
-        <v>1.018696993649928</v>
+        <v>1.018159062325041</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046520460148004</v>
+        <v>1.046047754915529</v>
       </c>
       <c r="J4">
-        <v>1.033757675609837</v>
+        <v>1.033144549835886</v>
       </c>
       <c r="K4">
-        <v>1.039391922717625</v>
+        <v>1.038335540962902</v>
       </c>
       <c r="L4">
-        <v>1.0285748803818</v>
+        <v>1.028043154339721</v>
       </c>
       <c r="N4">
-        <v>1.015119201617302</v>
+        <v>1.015964695760579</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038921995611174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03818363632674</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022113536363693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,40 +589,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01571914819366</v>
+        <v>1.015043389924495</v>
       </c>
       <c r="D5">
-        <v>1.030291578196664</v>
+        <v>1.029168010503559</v>
       </c>
       <c r="E5">
-        <v>1.019483831188823</v>
+        <v>1.018904585097883</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046747287819272</v>
+        <v>1.046246068016847</v>
       </c>
       <c r="J5">
-        <v>1.034284514809878</v>
+        <v>1.033624893981305</v>
       </c>
       <c r="K5">
-        <v>1.03982186551616</v>
+        <v>1.038710596521617</v>
       </c>
       <c r="L5">
-        <v>1.029133804642324</v>
+        <v>1.028561061454256</v>
       </c>
       <c r="N5">
-        <v>1.015296869418441</v>
+        <v>1.016093319319396</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039233180131467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038456722725203</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02218599752642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,40 +639,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015890371744001</v>
+        <v>1.015206442763479</v>
       </c>
       <c r="D6">
-        <v>1.030406632822004</v>
+        <v>1.029273569401691</v>
       </c>
       <c r="E6">
-        <v>1.019619711167385</v>
+        <v>1.019033296546252</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.0467881749496</v>
+        <v>1.046282019304214</v>
       </c>
       <c r="J6">
-        <v>1.034377109107746</v>
+        <v>1.033709429174421</v>
       </c>
       <c r="K6">
-        <v>1.039899437339299</v>
+        <v>1.038778720256106</v>
       </c>
       <c r="L6">
-        <v>1.029231423721908</v>
+        <v>1.028651562145061</v>
       </c>
       <c r="N6">
-        <v>1.015328548350352</v>
+        <v>1.016116300764012</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039296783189307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038514515202187</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022199725912565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,40 +689,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014748883943998</v>
+        <v>1.014128344825838</v>
       </c>
       <c r="D7">
-        <v>1.029662610778037</v>
+        <v>1.028599563459539</v>
       </c>
       <c r="E7">
-        <v>1.018718661523395</v>
+        <v>1.018187949984737</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046531673093075</v>
+        <v>1.046062657605103</v>
       </c>
       <c r="J7">
-        <v>1.033776735462709</v>
+        <v>1.033171461859399</v>
       </c>
       <c r="K7">
-        <v>1.039412859103571</v>
+        <v>1.038361758334014</v>
       </c>
       <c r="L7">
-        <v>1.028593371045642</v>
+        <v>1.028068779083364</v>
       </c>
       <c r="N7">
-        <v>1.015126860318224</v>
+        <v>1.015998824637675</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038956933313069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038224309499942</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022120945701825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,40 +739,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009882386258633</v>
+        <v>1.009514016980425</v>
       </c>
       <c r="D8">
-        <v>1.026492286741745</v>
+        <v>1.025714492142997</v>
       </c>
       <c r="E8">
-        <v>1.014887690311148</v>
+        <v>1.01457800073188</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045417336697954</v>
+        <v>1.045097592344858</v>
       </c>
       <c r="J8">
-        <v>1.031207754287774</v>
+        <v>1.030849791948209</v>
       </c>
       <c r="K8">
-        <v>1.037324973203444</v>
+        <v>1.036557055338473</v>
       </c>
       <c r="L8">
-        <v>1.025869705000281</v>
+        <v>1.025564059129037</v>
       </c>
       <c r="N8">
-        <v>1.014262769161842</v>
+        <v>1.015432003470933</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037485195618533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036953269396043</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021771954131941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,40 +789,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000949397924143</v>
+        <v>1.001022918411612</v>
       </c>
       <c r="D9">
-        <v>1.020696334293832</v>
+        <v>1.020425773030051</v>
       </c>
       <c r="E9">
-        <v>1.007900555401592</v>
+        <v>1.007976249118249</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043304809270909</v>
+        <v>1.043246903377513</v>
       </c>
       <c r="J9">
-        <v>1.026468674990566</v>
+        <v>1.026539606431821</v>
       </c>
       <c r="K9">
-        <v>1.033462320716924</v>
+        <v>1.033195926202652</v>
       </c>
       <c r="L9">
-        <v>1.020866739022998</v>
+        <v>1.020941229322425</v>
       </c>
       <c r="N9">
-        <v>1.012667058185444</v>
+        <v>1.01428994302852</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034750849583155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034573259761281</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021098649369896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -761,40 +839,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9947502158681975</v>
+        <v>0.9951818625644923</v>
       </c>
       <c r="D10">
-        <v>1.016703104032519</v>
+        <v>1.016820798260832</v>
       </c>
       <c r="E10">
-        <v>1.00308670380168</v>
+        <v>1.003474598525861</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041803007818932</v>
+        <v>1.041949693288557</v>
       </c>
       <c r="J10">
-        <v>1.023173681169539</v>
+        <v>1.023587955380033</v>
       </c>
       <c r="K10">
-        <v>1.030777188500084</v>
+        <v>1.030892847396448</v>
       </c>
       <c r="L10">
-        <v>1.017400449611815</v>
+        <v>1.017781400138306</v>
       </c>
       <c r="N10">
-        <v>1.011558545786685</v>
+        <v>1.013620202422832</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032869144123848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032963373160646</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020629044885847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,40 +889,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9920180076736529</v>
+        <v>0.9926795244783159</v>
       </c>
       <c r="D11">
-        <v>1.014958879661044</v>
+        <v>1.015299951453106</v>
       </c>
       <c r="E11">
-        <v>1.000975881143195</v>
+        <v>1.001565675440013</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041139085588171</v>
+        <v>1.041410138298935</v>
       </c>
       <c r="J11">
-        <v>1.021726658664112</v>
+        <v>1.022360047023998</v>
       </c>
       <c r="K11">
-        <v>1.029604101553676</v>
+        <v>1.029938988191526</v>
       </c>
       <c r="L11">
-        <v>1.015879417211409</v>
+        <v>1.016458125693902</v>
       </c>
       <c r="N11">
-        <v>1.011073743481434</v>
+        <v>1.01352483699784</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032072677798433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032325126932833</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020438891542458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -843,40 +939,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9909844439700956</v>
+        <v>0.9917400506678211</v>
       </c>
       <c r="D12">
-        <v>1.014295177030791</v>
+        <v>1.014725954713212</v>
       </c>
       <c r="E12">
-        <v>1.000177551105655</v>
+        <v>1.00085015432546</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040883116474935</v>
+        <v>1.041204699384465</v>
       </c>
       <c r="J12">
-        <v>1.021175320723011</v>
+        <v>1.021898147464511</v>
       </c>
       <c r="K12">
-        <v>1.029153534642675</v>
+        <v>1.029576364115675</v>
       </c>
       <c r="L12">
-        <v>1.01530135030692</v>
+        <v>1.015961084825082</v>
       </c>
       <c r="N12">
-        <v>1.01088803292454</v>
+        <v>1.013504500476376</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031754109997034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032068743616371</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020365699718335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -884,40 +989,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9912048861073037</v>
+        <v>0.9919401310731818</v>
       </c>
       <c r="D13">
-        <v>1.014435716932579</v>
+        <v>1.01484713899276</v>
       </c>
       <c r="E13">
-        <v>1.00034752438746</v>
+        <v>1.001002211431322</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040937071009902</v>
+        <v>1.041247745446077</v>
       </c>
       <c r="J13">
-        <v>1.021292190600295</v>
+        <v>1.021995675140392</v>
       </c>
       <c r="K13">
-        <v>1.029248357001026</v>
+        <v>1.029652215927262</v>
       </c>
       <c r="L13">
-        <v>1.015424057861813</v>
+        <v>1.016066266339376</v>
       </c>
       <c r="N13">
-        <v>1.010927196968682</v>
+        <v>1.013507613221567</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031818649583828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032119627314657</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020380798756696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -925,40 +1039,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9919320457036847</v>
+        <v>0.9926012519398825</v>
       </c>
       <c r="D14">
-        <v>1.014903243331353</v>
+        <v>1.015251672990504</v>
       </c>
       <c r="E14">
-        <v>1.000909355442004</v>
+        <v>1.00150591869161</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041117524765881</v>
+        <v>1.041392718720428</v>
       </c>
       <c r="J14">
-        <v>1.021680495692317</v>
+        <v>1.022321199040748</v>
       </c>
       <c r="K14">
-        <v>1.02956608240805</v>
+        <v>1.02990818438143</v>
       </c>
       <c r="L14">
-        <v>1.015831089380194</v>
+        <v>1.016416423020765</v>
       </c>
       <c r="N14">
-        <v>1.011058108191019</v>
+        <v>1.013522595400383</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032044724427635</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03230217190291</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020432583559471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -966,40 +1089,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9923821400284701</v>
+        <v>0.9930113651377525</v>
       </c>
       <c r="D15">
-        <v>1.0151946990168</v>
+        <v>1.015504811052131</v>
       </c>
       <c r="E15">
-        <v>1.001257761379624</v>
+        <v>1.001819134085545</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041230437442736</v>
+        <v>1.0414840835418</v>
       </c>
       <c r="J15">
-        <v>1.021922270882908</v>
+        <v>1.022524929467373</v>
       </c>
       <c r="K15">
-        <v>1.029765275374412</v>
+        <v>1.03006979798496</v>
       </c>
       <c r="L15">
-        <v>1.016084201146789</v>
+        <v>1.016635088230997</v>
       </c>
       <c r="N15">
-        <v>1.011140017370293</v>
+        <v>1.013535090176106</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032191457710495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.0324229024458</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020465705467666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1007,81 +1139,99 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9949595223166028</v>
+        <v>0.9953746783702205</v>
       </c>
       <c r="D16">
-        <v>1.016853635719988</v>
+        <v>1.016955165112174</v>
       </c>
       <c r="E16">
-        <v>1.003252588374714</v>
+        <v>1.003625891548088</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041865729397768</v>
+        <v>1.042003280591167</v>
       </c>
       <c r="J16">
-        <v>1.023297130318485</v>
+        <v>1.023695640698429</v>
       </c>
       <c r="K16">
-        <v>1.03088931277769</v>
+        <v>1.030989092154301</v>
       </c>
       <c r="L16">
-        <v>1.017526857748388</v>
+        <v>1.017893500312208</v>
       </c>
       <c r="N16">
-        <v>1.011603324515601</v>
+        <v>1.01363869074618</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032989377095589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033076356049944</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020651889618319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.996558667673016</v>
+        <v>0.9968555551336997</v>
       </c>
       <c r="D17">
-        <v>1.017884736397795</v>
+        <v>1.01786743803012</v>
       </c>
       <c r="E17">
-        <v>1.004492602653139</v>
+        <v>1.00476222361412</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042257629735032</v>
+        <v>1.04233009193204</v>
       </c>
       <c r="J17">
-        <v>1.024149736584375</v>
+        <v>1.024435108326683</v>
       </c>
       <c r="K17">
-        <v>1.031586283508638</v>
+        <v>1.031569274867598</v>
       </c>
       <c r="L17">
-        <v>1.018422316154927</v>
+        <v>1.018687265866935</v>
       </c>
       <c r="N17">
-        <v>1.011890658179181</v>
+        <v>1.013741134802312</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033484760800326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033489410606962</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020769744305113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1089,40 +1239,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9974762283036153</v>
+        <v>0.9977110109286665</v>
       </c>
       <c r="D18">
-        <v>1.018471868596488</v>
+        <v>1.018390510264569</v>
       </c>
       <c r="E18">
-        <v>1.005203720849043</v>
+        <v>1.005419019091697</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042477979408807</v>
+        <v>1.042515859690352</v>
       </c>
       <c r="J18">
-        <v>1.024634920922742</v>
+        <v>1.024860773295406</v>
       </c>
       <c r="K18">
-        <v>1.031979193225668</v>
+        <v>1.031899174612565</v>
       </c>
       <c r="L18">
-        <v>1.018933231792823</v>
+        <v>1.019144864245027</v>
       </c>
       <c r="N18">
-        <v>1.012053152856611</v>
+        <v>1.013812808530961</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033750882987728</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033709845832365</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020835816588565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,40 +1289,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9977950168783269</v>
+        <v>0.9980091178770668</v>
       </c>
       <c r="D19">
-        <v>1.01867995303658</v>
+        <v>1.018577019021931</v>
       </c>
       <c r="E19">
-        <v>1.005451850718205</v>
+        <v>1.005649049297775</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04255727421637</v>
+        <v>1.042583536203946</v>
       </c>
       <c r="J19">
-        <v>1.024806469339627</v>
+        <v>1.025012481445924</v>
       </c>
       <c r="K19">
-        <v>1.032120994858193</v>
+        <v>1.032019745955156</v>
       </c>
       <c r="L19">
-        <v>1.019113094961934</v>
+        <v>1.019306955975368</v>
       </c>
       <c r="N19">
-        <v>1.012111410312386</v>
+        <v>1.013842073705184</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03385755738793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03380213057756</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020860848725457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1171,40 +1339,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9963870373318409</v>
+        <v>0.9966960429063751</v>
       </c>
       <c r="D20">
-        <v>1.017773608283754</v>
+        <v>1.017768643393649</v>
       </c>
       <c r="E20">
-        <v>1.004359337895115</v>
+        <v>1.004639575852281</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042215367597982</v>
+        <v>1.042294545391522</v>
       </c>
       <c r="J20">
-        <v>1.024057946593062</v>
+        <v>1.024354923363981</v>
       </c>
       <c r="K20">
-        <v>1.031510967670569</v>
+        <v>1.031506086195217</v>
       </c>
       <c r="L20">
-        <v>1.018325964282886</v>
+        <v>1.018601331569236</v>
       </c>
       <c r="N20">
-        <v>1.011859643851988</v>
+        <v>1.013728412733764</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033430169208523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03344326439218</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02075681021056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1212,40 +1389,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9917278809583525</v>
+        <v>0.9924396002381789</v>
       </c>
       <c r="D21">
-        <v>1.01477737610491</v>
+        <v>1.015161042736241</v>
       </c>
       <c r="E21">
-        <v>1.000752891772303</v>
+        <v>1.001387318115372</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041070794777734</v>
+        <v>1.041367509052537</v>
       </c>
       <c r="J21">
-        <v>1.021575574156861</v>
+        <v>1.022256855210242</v>
       </c>
       <c r="K21">
-        <v>1.029484092519651</v>
+        <v>1.029860766820713</v>
       </c>
       <c r="L21">
-        <v>1.015720014413652</v>
+        <v>1.016342454911011</v>
       </c>
       <c r="N21">
-        <v>1.011023859860375</v>
+        <v>1.01358881683699</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032000323296824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032283524518989</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02042598931371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,40 +1439,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9887274380400574</v>
+        <v>0.989698978823942</v>
       </c>
       <c r="D22">
-        <v>1.012847199914465</v>
+        <v>1.013481707664754</v>
       </c>
       <c r="E22">
-        <v>0.9984366008395917</v>
+        <v>0.9992994901038933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040321399002242</v>
+        <v>1.040758495786733</v>
       </c>
       <c r="J22">
-        <v>1.019970494208166</v>
+        <v>1.020898048025416</v>
       </c>
       <c r="K22">
-        <v>1.028168376359722</v>
+        <v>1.028790738237781</v>
       </c>
       <c r="L22">
-        <v>1.014039092724633</v>
+        <v>1.014884837016798</v>
       </c>
       <c r="N22">
-        <v>1.010482095395822</v>
+        <v>1.01348530844041</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031056491188808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031512110716861</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020207161548963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1294,40 +1489,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9903121734534439</v>
+        <v>0.9911306762993037</v>
       </c>
       <c r="D23">
-        <v>1.01385956159752</v>
+        <v>1.014349932124626</v>
       </c>
       <c r="E23">
-        <v>0.9996576412174607</v>
+        <v>1.00038568095682</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040713231390604</v>
+        <v>1.041068568746908</v>
       </c>
       <c r="J23">
-        <v>1.020813458733701</v>
+        <v>1.021595997294835</v>
       </c>
       <c r="K23">
-        <v>1.028854796665376</v>
+        <v>1.029336019404558</v>
       </c>
       <c r="L23">
-        <v>1.01492291452666</v>
+        <v>1.015636866859146</v>
       </c>
       <c r="N23">
-        <v>1.010765266199795</v>
+        <v>1.013493309012046</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031532149465941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031887035433268</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020316325908835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,40 +1539,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9964456367919302</v>
+        <v>0.9967507108619204</v>
       </c>
       <c r="D24">
-        <v>1.01780082825819</v>
+        <v>1.017791711314522</v>
       </c>
       <c r="E24">
-        <v>1.004402329115336</v>
+        <v>1.004679196947697</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042222063218555</v>
+        <v>1.042299124210277</v>
       </c>
       <c r="J24">
-        <v>1.024081198882682</v>
+        <v>1.024374415792964</v>
       </c>
       <c r="K24">
-        <v>1.031522390056274</v>
+        <v>1.03151342607948</v>
       </c>
       <c r="L24">
-        <v>1.0183525734834</v>
+        <v>1.018624635927616</v>
       </c>
       <c r="N24">
-        <v>1.01186535765891</v>
+        <v>1.01372805772487</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033410750275817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033418289120035</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020756069128916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1376,37 +1589,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003320610181613</v>
+        <v>1.003263367963817</v>
       </c>
       <c r="D25">
-        <v>1.022241775212494</v>
+        <v>1.021827114878177</v>
       </c>
       <c r="E25">
-        <v>1.009751940698386</v>
+        <v>1.009713413444592</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043880489773405</v>
+        <v>1.043746857496591</v>
       </c>
       <c r="J25">
-        <v>1.02773673699785</v>
+        <v>1.027681403663723</v>
       </c>
       <c r="K25">
-        <v>1.034504356145661</v>
+        <v>1.034095785242704</v>
       </c>
       <c r="L25">
-        <v>1.022200733330702</v>
+        <v>1.022162789561973</v>
       </c>
       <c r="N25">
-        <v>1.013096121406421</v>
+        <v>1.01456339715223</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035516293944198</v>
+        <v>1.035240977655883</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021282579658974</v>
       </c>
     </row>
   </sheetData>
